--- a/merged_classification.xlsx
+++ b/merged_classification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiquynh\Documents\Vu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25569472-2850-4E75-9D6F-0922420A356B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1FB80E-1095-4C0C-A41F-6DA14FC8B7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{E7F90DCC-E70A-4DE9-8345-ACD4CF000BA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{0C9C265F-C591-4145-BDFF-2B9EC8D6D20B}"/>
   </bookViews>
   <sheets>
     <sheet name="merged_classification" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="396">
   <si>
     <t>user_id</t>
   </si>
   <si>
+    <t>assignment_id_A</t>
+  </si>
+  <si>
+    <t>name_A</t>
+  </si>
+  <si>
+    <t>submission_id_A</t>
+  </si>
+  <si>
+    <t>Name_A</t>
+  </si>
+  <si>
     <t>Reason of classification_A</t>
   </si>
   <si>
     <t>The detail reason_A</t>
   </si>
   <si>
+    <t>assignment_id_B</t>
+  </si>
+  <si>
+    <t>name_B</t>
+  </si>
+  <si>
+    <t>submission_id_B</t>
+  </si>
+  <si>
+    <t>Name_B</t>
+  </si>
+  <si>
     <t>Reason of classification_B</t>
   </si>
   <si>
     <t>The detail reason_B</t>
   </si>
   <si>
+    <t>TIP Online Project (Project Charter) - Adult AOC</t>
+  </si>
+  <si>
     <t>HRSN Screening</t>
   </si>
   <si>
@@ -46,6 +73,9 @@
     <t xml:space="preserve">This matches the criteria for Class 2: 'Screening members served by the practice annually using an evidence-based, standardized HRSN screening tool...' </t>
   </si>
   <si>
+    <t>TIP Online Project (Project Charter) - Adult AOC, 2024 Q4</t>
+  </si>
+  <si>
     <t>Identify HRSNs</t>
   </si>
   <si>
@@ -55,12 +85,18 @@
     <t>The project charter aims to expand on the organization's previous work in utilizing the PRAPARE Screening Tool, which is an evidence-based method for identifying HRSNs. The document also highlights the importance of understanding and acting on clients' Social Determinants of Health.</t>
   </si>
   <si>
+    <t>TIP Online Project (Project Charter) - Peds AOC 2024 Q4</t>
+  </si>
+  <si>
     <t>The document discusses strategies for recognizing unmet health-related social needs, which aligns with the criteria of Class 4.</t>
   </si>
   <si>
     <t>The given document mentions the need to screen clients for Health-Related Social Needs (HRSN) using an evidenced-based screening tool on an annual basis. This requirement is closely related to identifying HRSNs, as it aims to understand and act on the Social Determinants of Health (SDOH) of EMPACT-SPC's clients.</t>
   </si>
   <si>
+    <t>TIP Online Project (Project Charter) - Peds AOC</t>
+  </si>
+  <si>
     <t>Screening members served by the practice annually using an evidence-based, standardized HRSN screening tool</t>
   </si>
   <si>
@@ -196,6 +232,9 @@
     <t>The document discusses the project charter for implementing a closed loop referral system, which includes creating, sending, and receiving referrals for member care. This matches the criteria for Class 3, which is about Closed-Loop Referral System.</t>
   </si>
   <si>
+    <t>TIP Online Project (Project Charter) - Justice AOC 2024 Q4</t>
+  </si>
+  <si>
     <t>The text mentions 'Creating, Sending, and Receiving Referrals for Member Care' which indicates the process of referring patients to outside agencies based on their Social Determinants of Health (SDOH) needs.</t>
   </si>
   <si>
@@ -205,6 +244,9 @@
     <t>The document mentions 'closed loop process of referrals, both inter-agency as well as our community partners' which indicates a referral system between healthcare providers and social services.</t>
   </si>
   <si>
+    <t>TIP Online Project (Project Charter) - Justice AOC</t>
+  </si>
+  <si>
     <t>Mentions closed-loop process of referrals and community partners to assist in meeting social needs.</t>
   </si>
   <si>
@@ -1166,12 +1208,6 @@
   </si>
   <si>
     <t>The document discusses a project to identify substance use issues within marginalized communities, including the importance of culturally sensitive screening tools. This is relevant to Class 4: Identify HRSNs, which focuses on identifying health-related social needs.</t>
-  </si>
-  <si>
-    <t>Topic_Project_A</t>
-  </si>
-  <si>
-    <t>Topic_Project_B</t>
   </si>
 </sst>
 </file>
@@ -2032,4066 +2068,7340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD884428-1A06-4867-A01A-D42E6A322525}">
-  <dimension ref="A1:G182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CDCD02-0E0D-4D6B-9DA9-F42906FAF1B5}">
+  <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>382</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" t="s">
-        <v>383</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>111715984</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>44604807</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>593636370</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>50744748</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1">
+        <v>639944955</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>111715984</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>44604807</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>593636370</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>50744760</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1">
+        <v>639945217</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>111715984</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B4">
+        <v>44946565</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1">
+        <v>593636371</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>50744748</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1">
+        <v>639944955</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>111715984</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B5">
+        <v>44946565</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1">
+        <v>593636371</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>50744760</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1">
+        <v>639945217</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>111716007</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
+      <c r="B6">
+        <v>44604807</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>593636611</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>50744748</v>
+      </c>
+      <c r="I6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" s="1">
+        <v>639944956</v>
+      </c>
+      <c r="K6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>111716007</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
+      <c r="B7">
+        <v>44604807</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>593636611</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>50744760</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1">
+        <v>639945218</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>111716007</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
+      <c r="B8">
+        <v>44946565</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>593636612</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>50744748</v>
+      </c>
+      <c r="I8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" s="1">
+        <v>639944956</v>
+      </c>
+      <c r="K8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>111716007</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
+      <c r="B9">
+        <v>44946565</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1">
+        <v>593636612</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <v>50744760</v>
+      </c>
+      <c r="I9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <v>639945218</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>111716202</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
+      <c r="B10">
+        <v>44604807</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>593639464</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="H10">
+        <v>50744748</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1">
+        <v>639944957</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>111716202</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
+      <c r="B11">
+        <v>44604807</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>593639464</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="H11">
+        <v>50744760</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1">
+        <v>639945219</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>111716202</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
+      <c r="B12">
+        <v>44946565</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="D12" s="1">
+        <v>593639465</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H12">
+        <v>50744748</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1">
+        <v>639944957</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>111716202</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
+      <c r="B13">
+        <v>44946565</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="D13" s="1">
+        <v>593639465</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H13">
+        <v>50744760</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="1">
+        <v>639945219</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>111716315</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
+      <c r="B14">
+        <v>44604807</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>593640958</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="H14">
+        <v>50744748</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="1">
+        <v>639944958</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>111716923</v>
       </c>
-      <c r="B15" t="s">
-        <v>33</v>
+      <c r="B15">
+        <v>44604807</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
+        <v>593652969</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="H15">
+        <v>50744748</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1">
+        <v>639944959</v>
+      </c>
+      <c r="K15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>111721959</v>
       </c>
-      <c r="B16" t="s">
-        <v>43</v>
+      <c r="B16">
+        <v>44604807</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>593744347</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="H16">
+        <v>50744748</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1">
+        <v>639944960</v>
+      </c>
+      <c r="K16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>111721959</v>
       </c>
-      <c r="B17" t="s">
-        <v>43</v>
+      <c r="B17">
+        <v>44604807</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>593744347</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="H17">
+        <v>50744760</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="1">
+        <v>639945220</v>
+      </c>
+      <c r="K17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>111721959</v>
       </c>
-      <c r="B18" t="s">
-        <v>33</v>
+      <c r="B18">
+        <v>44946565</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
+        <v>24</v>
+      </c>
+      <c r="D18" s="1">
+        <v>593744348</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="H18">
+        <v>50744748</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1">
+        <v>639944960</v>
+      </c>
+      <c r="K18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>111721959</v>
       </c>
-      <c r="B19" t="s">
-        <v>33</v>
+      <c r="B19">
+        <v>44946565</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1">
+        <v>593744348</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19">
+        <v>50744760</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="1">
+        <v>639945220</v>
+      </c>
+      <c r="K19" t="s">
         <v>52</v>
       </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>111722404</v>
       </c>
-      <c r="B20" t="s">
-        <v>40</v>
+      <c r="B20">
+        <v>44604807</v>
       </c>
       <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>593758154</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20">
+        <v>50744748</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="1">
+        <v>639944962</v>
+      </c>
+      <c r="K20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" t="s">
         <v>53</v>
       </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>111722404</v>
       </c>
-      <c r="B21" t="s">
-        <v>40</v>
+      <c r="B21">
+        <v>44604807</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
+        <v>593758154</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="H21">
+        <v>50744760</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="1">
+        <v>639945221</v>
+      </c>
+      <c r="K21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>111722404</v>
       </c>
-      <c r="B22" t="s">
-        <v>40</v>
+      <c r="B22">
+        <v>44604807</v>
       </c>
       <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
+        <v>593758154</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22">
+        <v>50744762</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="1">
+        <v>639945509</v>
+      </c>
+      <c r="K22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" t="s">
         <v>53</v>
       </c>
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>111722404</v>
       </c>
-      <c r="B23" t="s">
-        <v>40</v>
+      <c r="B23">
+        <v>44946565</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" t="s">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="D23" s="1">
+        <v>593758155</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="H23">
+        <v>50744748</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="1">
+        <v>639944962</v>
+      </c>
+      <c r="K23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>111722404</v>
       </c>
-      <c r="B24" t="s">
-        <v>40</v>
+      <c r="B24">
+        <v>44946565</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" t="s">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="D24" s="1">
+        <v>593758155</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="H24">
+        <v>50744760</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="1">
+        <v>639945221</v>
+      </c>
+      <c r="K24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>111722404</v>
       </c>
-      <c r="B25" t="s">
-        <v>40</v>
+      <c r="B25">
+        <v>44946565</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" t="s">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="D25" s="1">
+        <v>593758155</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="H25">
+        <v>50744762</v>
+      </c>
+      <c r="I25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="1">
+        <v>639945509</v>
+      </c>
+      <c r="K25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" t="s">
+        <v>53</v>
+      </c>
+      <c r="M25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>111722404</v>
       </c>
-      <c r="B26" t="s">
-        <v>40</v>
+      <c r="B26">
+        <v>44946566</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
+        <v>74</v>
+      </c>
+      <c r="D26" s="1">
+        <v>593758156</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="H26">
+        <v>50744748</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="1">
+        <v>639944962</v>
+      </c>
+      <c r="K26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>111722404</v>
       </c>
-      <c r="B27" t="s">
-        <v>40</v>
+      <c r="B27">
+        <v>44946566</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
+        <v>74</v>
+      </c>
+      <c r="D27" s="1">
+        <v>593758156</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="H27">
+        <v>50744760</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="1">
+        <v>639945221</v>
+      </c>
+      <c r="K27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>111722404</v>
       </c>
-      <c r="B28" t="s">
-        <v>40</v>
+      <c r="B28">
+        <v>44946566</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
+        <v>74</v>
+      </c>
+      <c r="D28" s="1">
+        <v>593758156</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="H28">
+        <v>50744762</v>
+      </c>
+      <c r="I28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="1">
+        <v>639945509</v>
+      </c>
+      <c r="K28" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" t="s">
+        <v>53</v>
+      </c>
+      <c r="M28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>111722922</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
+      <c r="B29">
+        <v>44946565</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" t="s">
-        <v>64</v>
+        <v>24</v>
+      </c>
+      <c r="D29" s="1">
+        <v>593766664</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H29">
+        <v>50744760</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="1">
+        <v>639945222</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>111725130</v>
       </c>
-      <c r="B30" t="s">
-        <v>26</v>
+      <c r="B30">
+        <v>44604807</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>68</v>
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
+        <v>593818149</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="H30">
+        <v>50744748</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="1">
+        <v>639944969</v>
+      </c>
+      <c r="L30" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>111725130</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
+      <c r="B31">
+        <v>44604807</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
+        <v>593818149</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="H31">
+        <v>50744760</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="1">
+        <v>639945227</v>
+      </c>
+      <c r="K31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" t="s">
+        <v>72</v>
+      </c>
+      <c r="M31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>111725130</v>
       </c>
+      <c r="B32">
+        <v>44946565</v>
+      </c>
       <c r="C32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
+        <v>24</v>
+      </c>
+      <c r="D32" s="1">
+        <v>593818150</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="H32">
+        <v>50744748</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="1">
+        <v>639944969</v>
+      </c>
+      <c r="L32" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>111725130</v>
       </c>
+      <c r="B33">
+        <v>44946565</v>
+      </c>
       <c r="C33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="1">
+        <v>593818150</v>
+      </c>
+      <c r="F33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33">
+        <v>50744760</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="1">
+        <v>639945227</v>
+      </c>
+      <c r="K33" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" t="s">
         <v>72</v>
       </c>
-      <c r="E33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>111725428</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
+      <c r="B34">
+        <v>44604807</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" t="s">
-        <v>74</v>
+        <v>13</v>
+      </c>
+      <c r="D34" s="1">
+        <v>593825601</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="H34">
+        <v>50744748</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="1">
+        <v>639944971</v>
+      </c>
+      <c r="K34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" t="s">
+        <v>89</v>
+      </c>
+      <c r="M34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>111725428</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
+      <c r="B35">
+        <v>44604807</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" t="s">
-        <v>74</v>
+        <v>13</v>
+      </c>
+      <c r="D35" s="1">
+        <v>593825601</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="H35">
+        <v>50744760</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="1">
+        <v>639945229</v>
+      </c>
+      <c r="K35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" t="s">
+        <v>91</v>
+      </c>
+      <c r="M35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>111725428</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
+      <c r="B36">
+        <v>44604807</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" t="s">
-        <v>74</v>
+        <v>13</v>
+      </c>
+      <c r="D36" s="1">
+        <v>593825601</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="H36">
+        <v>50744762</v>
+      </c>
+      <c r="I36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J36" s="1">
+        <v>639945511</v>
+      </c>
+      <c r="K36" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" t="s">
+        <v>91</v>
+      </c>
+      <c r="M36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>111725428</v>
       </c>
-      <c r="B37" t="s">
-        <v>33</v>
+      <c r="B37">
+        <v>44946565</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" t="s">
-        <v>80</v>
+        <v>24</v>
+      </c>
+      <c r="D37" s="1">
+        <v>593825602</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H37">
+        <v>50744748</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="1">
+        <v>639944971</v>
+      </c>
+      <c r="K37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" t="s">
+        <v>89</v>
+      </c>
+      <c r="M37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>111725428</v>
       </c>
-      <c r="B38" t="s">
-        <v>33</v>
+      <c r="B38">
+        <v>44946565</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" t="s">
-        <v>80</v>
+        <v>24</v>
+      </c>
+      <c r="D38" s="1">
+        <v>593825602</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H38">
+        <v>50744760</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="1">
+        <v>639945229</v>
+      </c>
+      <c r="K38" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" t="s">
+        <v>91</v>
+      </c>
+      <c r="M38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>111725428</v>
       </c>
-      <c r="B39" t="s">
-        <v>33</v>
+      <c r="B39">
+        <v>44946565</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" t="s">
-        <v>80</v>
+        <v>24</v>
+      </c>
+      <c r="D39" s="1">
+        <v>593825602</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H39">
+        <v>50744762</v>
+      </c>
+      <c r="I39" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" s="1">
+        <v>639945511</v>
+      </c>
+      <c r="K39" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" t="s">
+        <v>91</v>
+      </c>
+      <c r="M39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>111725428</v>
       </c>
+      <c r="B40">
+        <v>44946566</v>
+      </c>
       <c r="C40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" t="s">
-        <v>5</v>
+        <v>74</v>
+      </c>
+      <c r="D40" s="1">
+        <v>593825603</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="H40">
+        <v>50744748</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="1">
+        <v>639944971</v>
+      </c>
+      <c r="K40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" t="s">
+        <v>89</v>
+      </c>
+      <c r="M40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>111725428</v>
       </c>
+      <c r="B41">
+        <v>44946566</v>
+      </c>
       <c r="C41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" t="s">
-        <v>40</v>
+        <v>74</v>
+      </c>
+      <c r="D41" s="1">
+        <v>593825603</v>
       </c>
       <c r="F41" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="H41">
+        <v>50744760</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="1">
+        <v>639945229</v>
+      </c>
+      <c r="K41" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" t="s">
+        <v>91</v>
+      </c>
+      <c r="M41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>111725428</v>
       </c>
+      <c r="B42">
+        <v>44946566</v>
+      </c>
       <c r="C42" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" t="s">
-        <v>40</v>
+        <v>74</v>
+      </c>
+      <c r="D42" s="1">
+        <v>593825603</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="H42">
+        <v>50744762</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+      <c r="J42" s="1">
+        <v>639945511</v>
+      </c>
+      <c r="K42" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42" t="s">
+        <v>91</v>
+      </c>
+      <c r="M42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>111758376</v>
       </c>
-      <c r="B43" t="s">
-        <v>8</v>
+      <c r="B43">
+        <v>44946565</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>82</v>
+        <v>24</v>
+      </c>
+      <c r="D43" s="1">
+        <v>594366661</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="H43">
+        <v>50744760</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="1">
+        <v>639945233</v>
+      </c>
+      <c r="K43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" t="s">
+        <v>87</v>
+      </c>
+      <c r="M43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>111760693</v>
       </c>
-      <c r="B44" t="s">
-        <v>5</v>
+      <c r="B44">
+        <v>44946565</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" t="s">
-        <v>85</v>
+        <v>24</v>
+      </c>
+      <c r="D44" s="1">
+        <v>594446674</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="H44">
+        <v>50744760</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="1">
+        <v>639945234</v>
+      </c>
+      <c r="K44" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" t="s">
+        <v>100</v>
+      </c>
+      <c r="M44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>111768725</v>
       </c>
-      <c r="B45" t="s">
-        <v>8</v>
+      <c r="B45">
+        <v>44604807</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" t="s">
-        <v>89</v>
+        <v>13</v>
+      </c>
+      <c r="D45" s="1">
+        <v>594592576</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="H45">
+        <v>50744748</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="1">
+        <v>639944978</v>
+      </c>
+      <c r="L45" t="s">
+        <v>104</v>
+      </c>
+      <c r="M45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>111769766</v>
       </c>
+      <c r="B46">
+        <v>44604807</v>
+      </c>
       <c r="C46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" t="s">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="D46" s="1">
+        <v>594615885</v>
       </c>
       <c r="F46" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="H46">
+        <v>50744748</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="1">
+        <v>639944979</v>
+      </c>
+      <c r="K46" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46" t="s">
+        <v>107</v>
+      </c>
+      <c r="M46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>111769766</v>
       </c>
+      <c r="B47">
+        <v>44604807</v>
+      </c>
       <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1">
+        <v>594615885</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" t="s">
+        <v>106</v>
+      </c>
+      <c r="H47">
+        <v>50744760</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="1">
+        <v>639945235</v>
+      </c>
+      <c r="K47" t="s">
         <v>38</v>
       </c>
-      <c r="D47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" t="s">
-        <v>95</v>
-      </c>
-      <c r="G47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>109</v>
+      </c>
+      <c r="M47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>111769766</v>
       </c>
+      <c r="B48">
+        <v>44604807</v>
+      </c>
       <c r="C48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" t="s">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="D48" s="1">
+        <v>594615885</v>
       </c>
       <c r="F48" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="H48">
+        <v>50744762</v>
+      </c>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+      <c r="J48" s="1">
+        <v>639945512</v>
+      </c>
+      <c r="K48" t="s">
+        <v>52</v>
+      </c>
+      <c r="L48" t="s">
+        <v>111</v>
+      </c>
+      <c r="M48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>111769766</v>
       </c>
-      <c r="B49" t="s">
-        <v>26</v>
+      <c r="B49">
+        <v>44946565</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" t="s">
-        <v>100</v>
+        <v>24</v>
+      </c>
+      <c r="D49" s="1">
+        <v>594615886</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="G49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="H49">
+        <v>50744748</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="1">
+        <v>639944979</v>
+      </c>
+      <c r="K49" t="s">
+        <v>45</v>
+      </c>
+      <c r="L49" t="s">
+        <v>107</v>
+      </c>
+      <c r="M49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>111769766</v>
       </c>
-      <c r="B50" t="s">
-        <v>26</v>
+      <c r="B50">
+        <v>44946565</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" t="s">
-        <v>100</v>
+        <v>24</v>
+      </c>
+      <c r="D50" s="1">
+        <v>594615886</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="H50">
+        <v>50744760</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="1">
+        <v>639945235</v>
+      </c>
+      <c r="K50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L50" t="s">
+        <v>109</v>
+      </c>
+      <c r="M50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>111769766</v>
       </c>
-      <c r="B51" t="s">
-        <v>26</v>
+      <c r="B51">
+        <v>44946565</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" t="s">
-        <v>100</v>
+        <v>24</v>
+      </c>
+      <c r="D51" s="1">
+        <v>594615886</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="G51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="H51">
+        <v>50744762</v>
+      </c>
+      <c r="I51" t="s">
+        <v>70</v>
+      </c>
+      <c r="J51" s="1">
+        <v>639945512</v>
+      </c>
+      <c r="K51" t="s">
+        <v>52</v>
+      </c>
+      <c r="L51" t="s">
+        <v>111</v>
+      </c>
+      <c r="M51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>111769766</v>
       </c>
-      <c r="B52" t="s">
-        <v>40</v>
+      <c r="B52">
+        <v>44946566</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" t="s">
-        <v>102</v>
+        <v>74</v>
+      </c>
+      <c r="D52" s="1">
+        <v>594615887</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F52" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="G52" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="H52">
+        <v>50744748</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="1">
+        <v>639944979</v>
+      </c>
+      <c r="K52" t="s">
+        <v>45</v>
+      </c>
+      <c r="L52" t="s">
+        <v>107</v>
+      </c>
+      <c r="M52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>111769766</v>
       </c>
-      <c r="B53" t="s">
-        <v>40</v>
+      <c r="B53">
+        <v>44946566</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" t="s">
-        <v>102</v>
+        <v>74</v>
+      </c>
+      <c r="D53" s="1">
+        <v>594615887</v>
       </c>
       <c r="E53" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="H53">
+        <v>50744760</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="1">
+        <v>639945235</v>
+      </c>
+      <c r="K53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53" t="s">
+        <v>109</v>
+      </c>
+      <c r="M53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>111769766</v>
       </c>
-      <c r="B54" t="s">
-        <v>40</v>
+      <c r="B54">
+        <v>44946566</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" t="s">
-        <v>102</v>
+        <v>74</v>
+      </c>
+      <c r="D54" s="1">
+        <v>594615887</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G54" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="H54">
+        <v>50744762</v>
+      </c>
+      <c r="I54" t="s">
+        <v>70</v>
+      </c>
+      <c r="J54" s="1">
+        <v>639945512</v>
+      </c>
+      <c r="K54" t="s">
+        <v>52</v>
+      </c>
+      <c r="L54" t="s">
+        <v>111</v>
+      </c>
+      <c r="M54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>111771482</v>
       </c>
-      <c r="B55" t="s">
-        <v>26</v>
+      <c r="B55">
+        <v>44946565</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" t="s">
-        <v>104</v>
+        <v>24</v>
+      </c>
+      <c r="D55" s="1">
+        <v>594652271</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H55">
+        <v>50744760</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="1">
+        <v>639945236</v>
+      </c>
+      <c r="K55" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" t="s">
+        <v>119</v>
+      </c>
+      <c r="M55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>111771794</v>
       </c>
-      <c r="B56" t="s">
-        <v>5</v>
+      <c r="B56">
+        <v>44604807</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" t="s">
-        <v>108</v>
+        <v>13</v>
+      </c>
+      <c r="D56" s="1">
+        <v>594656715</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="G56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="H56">
+        <v>50744748</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="1">
+        <v>639944983</v>
+      </c>
+      <c r="K56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L56" t="s">
+        <v>85</v>
+      </c>
+      <c r="M56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>111772328</v>
       </c>
-      <c r="B57" t="s">
-        <v>8</v>
+      <c r="B57">
+        <v>44604807</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" t="s">
-        <v>111</v>
+        <v>13</v>
+      </c>
+      <c r="D57" s="1">
+        <v>594665284</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G57" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="H57">
+        <v>50744748</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="1">
+        <v>639944984</v>
+      </c>
+      <c r="K57" t="s">
+        <v>126</v>
+      </c>
+      <c r="L57" t="s">
+        <v>127</v>
+      </c>
+      <c r="M57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>111802201</v>
       </c>
-      <c r="B58" t="s">
-        <v>26</v>
+      <c r="B58">
+        <v>44604807</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" t="s">
-        <v>116</v>
+        <v>13</v>
+      </c>
+      <c r="D58" s="1">
+        <v>595203222</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="H58">
+        <v>50744748</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="1">
+        <v>639944987</v>
+      </c>
+      <c r="K58" t="s">
+        <v>52</v>
+      </c>
+      <c r="L58" t="s">
+        <v>131</v>
+      </c>
+      <c r="M58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>111803342</v>
       </c>
-      <c r="B59" t="s">
-        <v>8</v>
+      <c r="B59">
+        <v>44604807</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" t="s">
-        <v>120</v>
+        <v>13</v>
+      </c>
+      <c r="D59" s="1">
+        <v>595227238</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="G59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="H59">
+        <v>50744748</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="1">
+        <v>639944988</v>
+      </c>
+      <c r="K59" t="s">
+        <v>45</v>
+      </c>
+      <c r="L59" t="s">
+        <v>85</v>
+      </c>
+      <c r="M59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>111803342</v>
       </c>
-      <c r="B60" t="s">
-        <v>8</v>
+      <c r="B60">
+        <v>44604807</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" t="s">
-        <v>120</v>
+        <v>13</v>
+      </c>
+      <c r="D60" s="1">
+        <v>595227238</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="G60" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="H60">
+        <v>50744762</v>
+      </c>
+      <c r="I60" t="s">
+        <v>70</v>
+      </c>
+      <c r="J60" s="1">
+        <v>639945513</v>
+      </c>
+      <c r="K60" t="s">
+        <v>45</v>
+      </c>
+      <c r="L60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>111803342</v>
       </c>
-      <c r="B61" t="s">
-        <v>5</v>
+      <c r="B61">
+        <v>44946566</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" t="s">
-        <v>124</v>
+        <v>74</v>
+      </c>
+      <c r="D61" s="1">
+        <v>595227240</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="G61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="H61">
+        <v>50744748</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="1">
+        <v>639944988</v>
+      </c>
+      <c r="K61" t="s">
+        <v>45</v>
+      </c>
+      <c r="L61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>111803342</v>
       </c>
-      <c r="B62" t="s">
-        <v>5</v>
+      <c r="B62">
+        <v>44946566</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" t="s">
-        <v>124</v>
+        <v>74</v>
+      </c>
+      <c r="D62" s="1">
+        <v>595227240</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="G62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="H62">
+        <v>50744762</v>
+      </c>
+      <c r="I62" t="s">
+        <v>70</v>
+      </c>
+      <c r="J62" s="1">
+        <v>639945513</v>
+      </c>
+      <c r="K62" t="s">
+        <v>45</v>
+      </c>
+      <c r="L62" t="s">
+        <v>85</v>
+      </c>
+      <c r="M62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>111803626</v>
       </c>
+      <c r="B63">
+        <v>44604807</v>
+      </c>
       <c r="C63" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" t="s">
-        <v>125</v>
-      </c>
-      <c r="E63" t="s">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="D63" s="1">
+        <v>595230933</v>
       </c>
       <c r="F63" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="H63">
+        <v>50744748</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="1">
+        <v>639944989</v>
+      </c>
+      <c r="K63" t="s">
+        <v>45</v>
+      </c>
+      <c r="L63" t="s">
+        <v>85</v>
+      </c>
+      <c r="M63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>111805017</v>
       </c>
-      <c r="B64" t="s">
-        <v>33</v>
+      <c r="B64">
+        <v>44604807</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" t="s">
-        <v>128</v>
+        <v>13</v>
+      </c>
+      <c r="D64" s="1">
+        <v>595257177</v>
       </c>
       <c r="E64" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G64" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="H64">
+        <v>50744748</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="1">
+        <v>639944990</v>
+      </c>
+      <c r="K64" t="s">
+        <v>143</v>
+      </c>
+      <c r="L64" t="s">
+        <v>144</v>
+      </c>
+      <c r="M64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>111805017</v>
       </c>
-      <c r="B65" t="s">
-        <v>33</v>
+      <c r="B65">
+        <v>44604807</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
-      </c>
-      <c r="D65" t="s">
-        <v>128</v>
+        <v>13</v>
+      </c>
+      <c r="D65" s="1">
+        <v>595257177</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G65" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="H65">
+        <v>50744760</v>
+      </c>
+      <c r="I65" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" s="1">
+        <v>639945238</v>
+      </c>
+      <c r="K65" t="s">
+        <v>45</v>
+      </c>
+      <c r="L65" t="s">
+        <v>146</v>
+      </c>
+      <c r="M65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>111805017</v>
       </c>
-      <c r="B66" t="s">
-        <v>43</v>
+      <c r="B66">
+        <v>44946565</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
-      </c>
-      <c r="D66" t="s">
-        <v>135</v>
+        <v>24</v>
+      </c>
+      <c r="D66" s="1">
+        <v>595257178</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="G66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="H66">
+        <v>50744748</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="1">
+        <v>639944990</v>
+      </c>
+      <c r="K66" t="s">
+        <v>143</v>
+      </c>
+      <c r="L66" t="s">
+        <v>144</v>
+      </c>
+      <c r="M66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>111805017</v>
       </c>
-      <c r="B67" t="s">
-        <v>43</v>
+      <c r="B67">
+        <v>44946565</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" t="s">
-        <v>135</v>
+        <v>24</v>
+      </c>
+      <c r="D67" s="1">
+        <v>595257178</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G67" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="H67">
+        <v>50744760</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" s="1">
+        <v>639945238</v>
+      </c>
+      <c r="K67" t="s">
+        <v>45</v>
+      </c>
+      <c r="L67" t="s">
+        <v>146</v>
+      </c>
+      <c r="M67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>111830169</v>
       </c>
-      <c r="B68" t="s">
-        <v>33</v>
+      <c r="B68">
+        <v>44946565</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" t="s">
-        <v>136</v>
+        <v>24</v>
+      </c>
+      <c r="D68" s="1">
+        <v>595634523</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="G68" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="H68">
+        <v>50744760</v>
+      </c>
+      <c r="I68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" s="1">
+        <v>639945240</v>
+      </c>
+      <c r="K68" t="s">
+        <v>45</v>
+      </c>
+      <c r="L68" t="s">
+        <v>151</v>
+      </c>
+      <c r="M68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>111855314</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
+      <c r="B69">
+        <v>44604807</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" t="s">
-        <v>140</v>
+        <v>13</v>
+      </c>
+      <c r="D69" s="1">
+        <v>596048096</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="H69">
+        <v>50744748</v>
+      </c>
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="1">
+        <v>639944996</v>
+      </c>
+      <c r="K69" t="s">
+        <v>55</v>
+      </c>
+      <c r="L69" t="s">
+        <v>155</v>
+      </c>
+      <c r="M69" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>111856692</v>
       </c>
-      <c r="B70" t="s">
-        <v>5</v>
+      <c r="B70">
+        <v>44604807</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70" t="s">
-        <v>144</v>
+        <v>13</v>
+      </c>
+      <c r="D70" s="1">
+        <v>596073071</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G70" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="H70">
+        <v>50744748</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="1">
+        <v>639944997</v>
+      </c>
+      <c r="K70" t="s">
+        <v>45</v>
+      </c>
+      <c r="L70" t="s">
+        <v>159</v>
+      </c>
+      <c r="M70" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>111856692</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
+      <c r="B71">
+        <v>44604807</v>
       </c>
       <c r="C71" t="s">
-        <v>143</v>
-      </c>
-      <c r="D71" t="s">
-        <v>144</v>
+        <v>13</v>
+      </c>
+      <c r="D71" s="1">
+        <v>596073071</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G71" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="H71">
+        <v>50744760</v>
+      </c>
+      <c r="I71" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" s="1">
+        <v>639945244</v>
+      </c>
+      <c r="K71" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71" t="s">
+        <v>161</v>
+      </c>
+      <c r="M71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>111856692</v>
       </c>
-      <c r="B72" t="s">
-        <v>5</v>
+      <c r="B72">
+        <v>44946565</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
-      </c>
-      <c r="D72" t="s">
-        <v>150</v>
+        <v>24</v>
+      </c>
+      <c r="D72" s="1">
+        <v>596073072</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="G72" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="H72">
+        <v>50744748</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="1">
+        <v>639944997</v>
+      </c>
+      <c r="K72" t="s">
+        <v>45</v>
+      </c>
+      <c r="L72" t="s">
+        <v>159</v>
+      </c>
+      <c r="M72" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>111856692</v>
       </c>
-      <c r="B73" t="s">
-        <v>5</v>
+      <c r="B73">
+        <v>44946565</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73" t="s">
-        <v>150</v>
+        <v>24</v>
+      </c>
+      <c r="D73" s="1">
+        <v>596073072</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G73" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="H73">
+        <v>50744760</v>
+      </c>
+      <c r="I73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" s="1">
+        <v>639945244</v>
+      </c>
+      <c r="K73" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73" t="s">
+        <v>161</v>
+      </c>
+      <c r="M73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>111879618</v>
       </c>
-      <c r="B74" t="s">
-        <v>5</v>
+      <c r="B74">
+        <v>44604807</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="D74" s="1">
+        <v>596426879</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="G74" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="H74">
+        <v>50744748</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="1">
+        <v>639945000</v>
+      </c>
+      <c r="K74" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>111879618</v>
       </c>
-      <c r="B75" t="s">
-        <v>5</v>
+      <c r="B75">
+        <v>44604807</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
-      </c>
-      <c r="D75" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="D75" s="1">
+        <v>596426879</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="G75" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="H75">
+        <v>50744760</v>
+      </c>
+      <c r="I75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" s="1">
+        <v>639945246</v>
+      </c>
+      <c r="K75" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" t="s">
+        <v>168</v>
+      </c>
+      <c r="M75" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>111879618</v>
       </c>
-      <c r="B76" t="s">
-        <v>5</v>
+      <c r="B76">
+        <v>44604807</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
-      </c>
-      <c r="D76" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="D76" s="1">
+        <v>596426879</v>
       </c>
       <c r="E76" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G76" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="H76">
+        <v>50744762</v>
+      </c>
+      <c r="I76" t="s">
+        <v>70</v>
+      </c>
+      <c r="J76" s="1">
+        <v>639945517</v>
+      </c>
+      <c r="K76" t="s">
+        <v>14</v>
+      </c>
+      <c r="L76" t="s">
+        <v>170</v>
+      </c>
+      <c r="M76" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>111879618</v>
       </c>
-      <c r="B77" t="s">
-        <v>5</v>
+      <c r="B77">
+        <v>44946565</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
-      </c>
-      <c r="D77" t="s">
-        <v>159</v>
+        <v>24</v>
+      </c>
+      <c r="D77" s="1">
+        <v>596426880</v>
       </c>
       <c r="E77" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="G77" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="H77">
+        <v>50744748</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="1">
+        <v>639945000</v>
+      </c>
+      <c r="K77" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" t="s">
+        <v>25</v>
+      </c>
+      <c r="M77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>111879618</v>
       </c>
-      <c r="B78" t="s">
-        <v>5</v>
+      <c r="B78">
+        <v>44946565</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
-      </c>
-      <c r="D78" t="s">
-        <v>159</v>
+        <v>24</v>
+      </c>
+      <c r="D78" s="1">
+        <v>596426880</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="G78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="H78">
+        <v>50744760</v>
+      </c>
+      <c r="I78" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" s="1">
+        <v>639945246</v>
+      </c>
+      <c r="K78" t="s">
+        <v>18</v>
+      </c>
+      <c r="L78" t="s">
+        <v>168</v>
+      </c>
+      <c r="M78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>111879618</v>
       </c>
-      <c r="B79" t="s">
-        <v>5</v>
+      <c r="B79">
+        <v>44946565</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
-      </c>
-      <c r="D79" t="s">
-        <v>159</v>
+        <v>24</v>
+      </c>
+      <c r="D79" s="1">
+        <v>596426880</v>
       </c>
       <c r="E79" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G79" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="H79">
+        <v>50744762</v>
+      </c>
+      <c r="I79" t="s">
+        <v>70</v>
+      </c>
+      <c r="J79" s="1">
+        <v>639945517</v>
+      </c>
+      <c r="K79" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" t="s">
+        <v>170</v>
+      </c>
+      <c r="M79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>111879618</v>
       </c>
-      <c r="B80" t="s">
-        <v>5</v>
+      <c r="B80">
+        <v>44946566</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
-      </c>
-      <c r="D80" t="s">
-        <v>161</v>
+        <v>74</v>
+      </c>
+      <c r="D80" s="1">
+        <v>596426881</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="G80" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="H80">
+        <v>50744748</v>
+      </c>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="1">
+        <v>639945000</v>
+      </c>
+      <c r="K80" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" t="s">
+        <v>25</v>
+      </c>
+      <c r="M80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>111879618</v>
       </c>
-      <c r="B81" t="s">
-        <v>5</v>
+      <c r="B81">
+        <v>44946566</v>
       </c>
       <c r="C81" t="s">
-        <v>160</v>
-      </c>
-      <c r="D81" t="s">
-        <v>161</v>
+        <v>74</v>
+      </c>
+      <c r="D81" s="1">
+        <v>596426881</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G81" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="H81">
+        <v>50744760</v>
+      </c>
+      <c r="I81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J81" s="1">
+        <v>639945246</v>
+      </c>
+      <c r="K81" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" t="s">
+        <v>168</v>
+      </c>
+      <c r="M81" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>111879618</v>
       </c>
-      <c r="B82" t="s">
-        <v>5</v>
+      <c r="B82">
+        <v>44946566</v>
       </c>
       <c r="C82" t="s">
-        <v>160</v>
-      </c>
-      <c r="D82" t="s">
-        <v>161</v>
+        <v>74</v>
+      </c>
+      <c r="D82" s="1">
+        <v>596426881</v>
       </c>
       <c r="E82" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="G82" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="H82">
+        <v>50744762</v>
+      </c>
+      <c r="I82" t="s">
+        <v>70</v>
+      </c>
+      <c r="J82" s="1">
+        <v>639945517</v>
+      </c>
+      <c r="K82" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" t="s">
+        <v>170</v>
+      </c>
+      <c r="M82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>111914550</v>
       </c>
+      <c r="B83">
+        <v>44946565</v>
+      </c>
       <c r="C83" t="s">
-        <v>71</v>
-      </c>
-      <c r="D83" t="s">
-        <v>162</v>
-      </c>
-      <c r="E83" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="D83" s="1">
+        <v>596793980</v>
       </c>
       <c r="F83" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="G83" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="H83">
+        <v>50744760</v>
+      </c>
+      <c r="I83" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" s="1">
+        <v>639945250</v>
+      </c>
+      <c r="K83" t="s">
+        <v>45</v>
+      </c>
+      <c r="L83" t="s">
+        <v>177</v>
+      </c>
+      <c r="M83" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>111914564</v>
       </c>
-      <c r="B84" t="s">
-        <v>5</v>
+      <c r="B84">
+        <v>44946566</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
-      </c>
-      <c r="D84" t="s">
-        <v>166</v>
+        <v>74</v>
+      </c>
+      <c r="D84" s="1">
+        <v>596794231</v>
       </c>
       <c r="E84" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="G84" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="H84">
+        <v>50744762</v>
+      </c>
+      <c r="I84" t="s">
+        <v>70</v>
+      </c>
+      <c r="J84" s="1">
+        <v>639945518</v>
+      </c>
+      <c r="K84" t="s">
+        <v>14</v>
+      </c>
+      <c r="L84" t="s">
+        <v>181</v>
+      </c>
+      <c r="M84" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>111914617</v>
       </c>
-      <c r="B85" t="s">
-        <v>5</v>
+      <c r="B85">
+        <v>44604807</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
-      </c>
-      <c r="D85" t="s">
-        <v>170</v>
+        <v>13</v>
+      </c>
+      <c r="D85" s="1">
+        <v>596794692</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="G85" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="H85">
+        <v>50744748</v>
+      </c>
+      <c r="I85" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="1">
+        <v>639945009</v>
+      </c>
+      <c r="L85" t="s">
+        <v>185</v>
+      </c>
+      <c r="M85" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>111914617</v>
       </c>
-      <c r="B86" t="s">
-        <v>5</v>
+      <c r="B86">
+        <v>44604807</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
-      </c>
-      <c r="D86" t="s">
-        <v>170</v>
+        <v>13</v>
+      </c>
+      <c r="D86" s="1">
+        <v>596794692</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="G86" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="H86">
+        <v>50744760</v>
+      </c>
+      <c r="I86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" s="1">
+        <v>639945251</v>
+      </c>
+      <c r="K86" t="s">
+        <v>45</v>
+      </c>
+      <c r="L86" t="s">
+        <v>85</v>
+      </c>
+      <c r="M86" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>111914617</v>
       </c>
-      <c r="B87" t="s">
-        <v>5</v>
+      <c r="B87">
+        <v>44946565</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
-      </c>
-      <c r="D87" t="s">
-        <v>175</v>
+        <v>24</v>
+      </c>
+      <c r="D87" s="1">
+        <v>596794693</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="G87" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="H87">
+        <v>50744748</v>
+      </c>
+      <c r="I87" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="1">
+        <v>639945009</v>
+      </c>
+      <c r="L87" t="s">
+        <v>185</v>
+      </c>
+      <c r="M87" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>111914617</v>
       </c>
-      <c r="B88" t="s">
-        <v>5</v>
+      <c r="B88">
+        <v>44946565</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
-      </c>
-      <c r="D88" t="s">
-        <v>175</v>
+        <v>24</v>
+      </c>
+      <c r="D88" s="1">
+        <v>596794693</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="G88" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="H88">
+        <v>50744760</v>
+      </c>
+      <c r="I88" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88" s="1">
+        <v>639945251</v>
+      </c>
+      <c r="K88" t="s">
+        <v>45</v>
+      </c>
+      <c r="L88" t="s">
+        <v>85</v>
+      </c>
+      <c r="M88" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>111914695</v>
       </c>
-      <c r="B89" t="s">
-        <v>40</v>
+      <c r="B89">
+        <v>44946565</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
-      </c>
-      <c r="D89" t="s">
-        <v>177</v>
+        <v>24</v>
+      </c>
+      <c r="D89" s="1">
+        <v>596797800</v>
+      </c>
+      <c r="E89" t="s">
+        <v>52</v>
       </c>
       <c r="F89" t="s">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="G89" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="H89">
+        <v>50744760</v>
+      </c>
+      <c r="I89" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89" s="1">
+        <v>639945255</v>
+      </c>
+      <c r="L89" t="s">
+        <v>85</v>
+      </c>
+      <c r="M89" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>111916876</v>
       </c>
-      <c r="B90" t="s">
-        <v>5</v>
+      <c r="B90">
+        <v>44604807</v>
       </c>
       <c r="C90" t="s">
-        <v>179</v>
-      </c>
-      <c r="D90" t="s">
-        <v>180</v>
+        <v>13</v>
+      </c>
+      <c r="D90" s="1">
+        <v>596851204</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="G90" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="H90">
+        <v>50744748</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="1">
+        <v>639945013</v>
+      </c>
+      <c r="K90" t="s">
+        <v>52</v>
+      </c>
+      <c r="L90" t="s">
+        <v>72</v>
+      </c>
+      <c r="M90" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>111916876</v>
       </c>
-      <c r="B91" t="s">
-        <v>5</v>
+      <c r="B91">
+        <v>44604807</v>
       </c>
       <c r="C91" t="s">
-        <v>179</v>
-      </c>
-      <c r="D91" t="s">
-        <v>180</v>
+        <v>13</v>
+      </c>
+      <c r="D91" s="1">
+        <v>596851204</v>
       </c>
       <c r="E91" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="G91" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="H91">
+        <v>50744762</v>
+      </c>
+      <c r="I91" t="s">
+        <v>70</v>
+      </c>
+      <c r="J91" s="1">
+        <v>639945520</v>
+      </c>
+      <c r="K91" t="s">
+        <v>196</v>
+      </c>
+      <c r="L91" t="s">
+        <v>197</v>
+      </c>
+      <c r="M91" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>111916876</v>
       </c>
-      <c r="B92" t="s">
-        <v>40</v>
+      <c r="B92">
+        <v>44946566</v>
       </c>
       <c r="C92" t="s">
-        <v>185</v>
-      </c>
-      <c r="D92" t="s">
-        <v>186</v>
+        <v>74</v>
+      </c>
+      <c r="D92" s="1">
+        <v>596851206</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F92" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="G92" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="H92">
+        <v>50744748</v>
+      </c>
+      <c r="I92" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="1">
+        <v>639945013</v>
+      </c>
+      <c r="K92" t="s">
+        <v>52</v>
+      </c>
+      <c r="L92" t="s">
+        <v>72</v>
+      </c>
+      <c r="M92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>111916876</v>
       </c>
-      <c r="B93" t="s">
-        <v>40</v>
+      <c r="B93">
+        <v>44946566</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
-      </c>
-      <c r="D93" t="s">
-        <v>186</v>
+        <v>74</v>
+      </c>
+      <c r="D93" s="1">
+        <v>596851206</v>
       </c>
       <c r="E93" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="F93" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="G93" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="H93">
+        <v>50744762</v>
+      </c>
+      <c r="I93" t="s">
+        <v>70</v>
+      </c>
+      <c r="J93" s="1">
+        <v>639945520</v>
+      </c>
+      <c r="K93" t="s">
+        <v>196</v>
+      </c>
+      <c r="L93" t="s">
+        <v>197</v>
+      </c>
+      <c r="M93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>111919565</v>
       </c>
-      <c r="B94" t="s">
-        <v>5</v>
+      <c r="B94">
+        <v>44604807</v>
       </c>
       <c r="C94" t="s">
-        <v>187</v>
-      </c>
-      <c r="D94" t="s">
-        <v>188</v>
+        <v>13</v>
+      </c>
+      <c r="D94" s="1">
+        <v>596918806</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="G94" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="H94">
+        <v>50744748</v>
+      </c>
+      <c r="I94" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="1">
+        <v>639945014</v>
+      </c>
+      <c r="K94" t="s">
+        <v>55</v>
+      </c>
+      <c r="L94" t="s">
+        <v>203</v>
+      </c>
+      <c r="M94" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>111919565</v>
       </c>
-      <c r="B95" t="s">
-        <v>5</v>
+      <c r="B95">
+        <v>44604807</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
-      </c>
-      <c r="D95" t="s">
-        <v>188</v>
+        <v>13</v>
+      </c>
+      <c r="D95" s="1">
+        <v>596918806</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="G95" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="H95">
+        <v>50744760</v>
+      </c>
+      <c r="I95" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95" s="1">
+        <v>639945256</v>
+      </c>
+      <c r="K95" t="s">
+        <v>55</v>
+      </c>
+      <c r="L95" t="s">
+        <v>205</v>
+      </c>
+      <c r="M95" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>111919565</v>
       </c>
-      <c r="B96" t="s">
-        <v>5</v>
+      <c r="B96">
+        <v>44946565</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
-      </c>
-      <c r="D96" t="s">
-        <v>194</v>
+        <v>24</v>
+      </c>
+      <c r="D96" s="1">
+        <v>596918807</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="G96" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="H96">
+        <v>50744748</v>
+      </c>
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" s="1">
+        <v>639945014</v>
+      </c>
+      <c r="K96" t="s">
+        <v>55</v>
+      </c>
+      <c r="L96" t="s">
+        <v>203</v>
+      </c>
+      <c r="M96" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>111919565</v>
       </c>
-      <c r="B97" t="s">
-        <v>5</v>
+      <c r="B97">
+        <v>44946565</v>
       </c>
       <c r="C97" t="s">
-        <v>193</v>
-      </c>
-      <c r="D97" t="s">
-        <v>194</v>
+        <v>24</v>
+      </c>
+      <c r="D97" s="1">
+        <v>596918807</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="G97" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="H97">
+        <v>50744760</v>
+      </c>
+      <c r="I97" t="s">
+        <v>21</v>
+      </c>
+      <c r="J97" s="1">
+        <v>639945256</v>
+      </c>
+      <c r="K97" t="s">
+        <v>55</v>
+      </c>
+      <c r="L97" t="s">
+        <v>205</v>
+      </c>
+      <c r="M97" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>111920699</v>
       </c>
-      <c r="B98" t="s">
-        <v>5</v>
+      <c r="B98">
+        <v>44604807</v>
       </c>
       <c r="C98" t="s">
-        <v>63</v>
-      </c>
-      <c r="D98" t="s">
-        <v>195</v>
+        <v>13</v>
+      </c>
+      <c r="D98" s="1">
+        <v>596940165</v>
       </c>
       <c r="E98" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="G98" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="H98">
+        <v>50744748</v>
+      </c>
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" s="1">
+        <v>639945015</v>
+      </c>
+      <c r="K98" t="s">
+        <v>14</v>
+      </c>
+      <c r="L98" t="s">
+        <v>210</v>
+      </c>
+      <c r="M98" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>111921345</v>
       </c>
-      <c r="B99" t="s">
-        <v>5</v>
+      <c r="B99">
+        <v>44604807</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
       </c>
-      <c r="D99" t="s">
-        <v>198</v>
+      <c r="D99" s="1">
+        <v>596953077</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="G99" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="H99">
+        <v>50744748</v>
+      </c>
+      <c r="I99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" s="1">
+        <v>639945018</v>
+      </c>
+      <c r="K99" t="s">
+        <v>45</v>
+      </c>
+      <c r="L99" t="s">
+        <v>213</v>
+      </c>
+      <c r="M99" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>111921345</v>
       </c>
-      <c r="B100" t="s">
-        <v>5</v>
+      <c r="B100">
+        <v>44604807</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
       </c>
-      <c r="D100" t="s">
-        <v>198</v>
+      <c r="D100" s="1">
+        <v>596953077</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="G100" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="H100">
+        <v>50744760</v>
+      </c>
+      <c r="I100" t="s">
+        <v>21</v>
+      </c>
+      <c r="J100" s="1">
+        <v>639945259</v>
+      </c>
+      <c r="K100" t="s">
+        <v>45</v>
+      </c>
+      <c r="L100" t="s">
+        <v>104</v>
+      </c>
+      <c r="M100" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>111921345</v>
       </c>
+      <c r="B101">
+        <v>44946565</v>
+      </c>
       <c r="C101" t="s">
-        <v>202</v>
-      </c>
-      <c r="E101" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="D101" s="1">
+        <v>596953078</v>
       </c>
       <c r="F101" t="s">
-        <v>199</v>
-      </c>
-      <c r="G101" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="H101">
+        <v>50744748</v>
+      </c>
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" s="1">
+        <v>639945018</v>
+      </c>
+      <c r="K101" t="s">
+        <v>45</v>
+      </c>
+      <c r="L101" t="s">
+        <v>213</v>
+      </c>
+      <c r="M101" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>111921345</v>
       </c>
+      <c r="B102">
+        <v>44946565</v>
+      </c>
       <c r="C102" t="s">
-        <v>202</v>
-      </c>
-      <c r="E102" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="D102" s="1">
+        <v>596953078</v>
       </c>
       <c r="F102" t="s">
-        <v>90</v>
-      </c>
-      <c r="G102" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="H102">
+        <v>50744760</v>
+      </c>
+      <c r="I102" t="s">
+        <v>21</v>
+      </c>
+      <c r="J102" s="1">
+        <v>639945259</v>
+      </c>
+      <c r="K102" t="s">
+        <v>45</v>
+      </c>
+      <c r="L102" t="s">
+        <v>104</v>
+      </c>
+      <c r="M102" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>111921718</v>
       </c>
-      <c r="B103" t="s">
-        <v>40</v>
+      <c r="B103">
+        <v>44604807</v>
       </c>
       <c r="C103" t="s">
-        <v>203</v>
-      </c>
-      <c r="D103" t="s">
-        <v>204</v>
+        <v>13</v>
+      </c>
+      <c r="D103" s="1">
+        <v>596961953</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G103" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="H103">
+        <v>50744748</v>
+      </c>
+      <c r="I103" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" s="1">
+        <v>639945023</v>
+      </c>
+      <c r="K103" t="s">
+        <v>219</v>
+      </c>
+      <c r="L103" t="s">
+        <v>220</v>
+      </c>
+      <c r="M103" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>111922268</v>
       </c>
-      <c r="B104" t="s">
-        <v>5</v>
+      <c r="B104">
+        <v>44946565</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
-      </c>
-      <c r="D104" t="s">
-        <v>209</v>
+        <v>24</v>
+      </c>
+      <c r="D104" s="1">
+        <v>596987002</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G104" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="H104">
+        <v>50744760</v>
+      </c>
+      <c r="I104" t="s">
+        <v>21</v>
+      </c>
+      <c r="J104" s="1">
+        <v>639945265</v>
+      </c>
+      <c r="K104" t="s">
+        <v>55</v>
+      </c>
+      <c r="L104" t="s">
+        <v>224</v>
+      </c>
+      <c r="M104" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>111922533</v>
       </c>
-      <c r="B105" t="s">
-        <v>5</v>
+      <c r="B105">
+        <v>44604807</v>
       </c>
       <c r="C105" t="s">
-        <v>212</v>
-      </c>
-      <c r="D105" t="s">
-        <v>213</v>
+        <v>13</v>
+      </c>
+      <c r="D105" s="1">
+        <v>596992187</v>
       </c>
       <c r="E105" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="G105" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="H105">
+        <v>50744748</v>
+      </c>
+      <c r="I105" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" s="1">
+        <v>639945027</v>
+      </c>
+      <c r="K105" t="s">
+        <v>52</v>
+      </c>
+      <c r="L105" t="s">
+        <v>228</v>
+      </c>
+      <c r="M105" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>111922613</v>
       </c>
+      <c r="B106">
+        <v>44604807</v>
+      </c>
       <c r="C106" t="s">
-        <v>216</v>
-      </c>
-      <c r="D106" t="s">
-        <v>217</v>
-      </c>
-      <c r="E106" t="s">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="D106" s="1">
+        <v>596995385</v>
       </c>
       <c r="F106" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="G106" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="H106">
+        <v>50744748</v>
+      </c>
+      <c r="I106" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106" s="1">
+        <v>639945028</v>
+      </c>
+      <c r="K106" t="s">
+        <v>52</v>
+      </c>
+      <c r="L106" t="s">
+        <v>232</v>
+      </c>
+      <c r="M106" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>111922689</v>
       </c>
-      <c r="B107" t="s">
-        <v>5</v>
+      <c r="B107">
+        <v>44946565</v>
       </c>
       <c r="C107" t="s">
-        <v>208</v>
-      </c>
-      <c r="D107" t="s">
-        <v>220</v>
+        <v>24</v>
+      </c>
+      <c r="D107" s="1">
+        <v>596999507</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G107" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="H107">
+        <v>50744760</v>
+      </c>
+      <c r="I107" t="s">
+        <v>21</v>
+      </c>
+      <c r="J107" s="1">
+        <v>639945266</v>
+      </c>
+      <c r="K107" t="s">
+        <v>18</v>
+      </c>
+      <c r="L107" t="s">
+        <v>235</v>
+      </c>
+      <c r="M107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>111923975</v>
       </c>
-      <c r="B108" t="s">
-        <v>33</v>
+      <c r="B108">
+        <v>44946565</v>
       </c>
       <c r="C108" t="s">
-        <v>223</v>
-      </c>
-      <c r="D108" t="s">
-        <v>224</v>
+        <v>24</v>
+      </c>
+      <c r="D108" s="1">
+        <v>597024181</v>
+      </c>
+      <c r="E108" t="s">
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="G108" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="H108">
+        <v>50744760</v>
+      </c>
+      <c r="I108" t="s">
+        <v>21</v>
+      </c>
+      <c r="J108" s="1">
+        <v>639945268</v>
+      </c>
+      <c r="L108" t="s">
+        <v>85</v>
+      </c>
+      <c r="M108" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>111924709</v>
       </c>
-      <c r="B109" t="s">
-        <v>5</v>
+      <c r="B109">
+        <v>44604807</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
       </c>
-      <c r="D109" t="s">
-        <v>226</v>
+      <c r="D109" s="1">
+        <v>597032733</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="G109" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="H109">
+        <v>50744748</v>
+      </c>
+      <c r="I109" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109" s="1">
+        <v>639945034</v>
+      </c>
+      <c r="K109" t="s">
+        <v>45</v>
+      </c>
+      <c r="L109" t="s">
+        <v>85</v>
+      </c>
+      <c r="M109" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>111924735</v>
       </c>
-      <c r="B110" t="s">
-        <v>40</v>
+      <c r="B110">
+        <v>44946565</v>
       </c>
       <c r="C110" t="s">
-        <v>59</v>
-      </c>
-      <c r="D110" t="s">
-        <v>228</v>
+        <v>24</v>
+      </c>
+      <c r="D110" s="1">
+        <v>597032945</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F110" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G110" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="H110">
+        <v>50744760</v>
+      </c>
+      <c r="I110" t="s">
+        <v>21</v>
+      </c>
+      <c r="J110" s="1">
+        <v>639945271</v>
+      </c>
+      <c r="K110" t="s">
+        <v>52</v>
+      </c>
+      <c r="L110" t="s">
+        <v>72</v>
+      </c>
+      <c r="M110" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>111931899</v>
       </c>
-      <c r="B111" t="s">
-        <v>33</v>
+      <c r="B111">
+        <v>44946565</v>
       </c>
       <c r="C111" t="s">
-        <v>71</v>
-      </c>
-      <c r="D111" t="s">
-        <v>230</v>
+        <v>24</v>
+      </c>
+      <c r="D111" s="1">
+        <v>597219768</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="G111" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="H111">
+        <v>50744760</v>
+      </c>
+      <c r="I111" t="s">
+        <v>21</v>
+      </c>
+      <c r="J111" s="1">
+        <v>639945277</v>
+      </c>
+      <c r="K111" t="s">
+        <v>45</v>
+      </c>
+      <c r="L111" t="s">
+        <v>245</v>
+      </c>
+      <c r="M111" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111941744</v>
       </c>
-      <c r="B112" t="s">
-        <v>33</v>
+      <c r="B112">
+        <v>44604807</v>
       </c>
       <c r="C112" t="s">
-        <v>71</v>
-      </c>
-      <c r="D112" t="s">
-        <v>233</v>
+        <v>13</v>
+      </c>
+      <c r="D112" s="1">
+        <v>597471660</v>
       </c>
       <c r="E112" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="G112" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="H112">
+        <v>50744748</v>
+      </c>
+      <c r="I112" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112" s="1">
+        <v>639945045</v>
+      </c>
+      <c r="K112" t="s">
+        <v>14</v>
+      </c>
+      <c r="L112" t="s">
+        <v>25</v>
+      </c>
+      <c r="M112" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111941744</v>
       </c>
-      <c r="B113" t="s">
-        <v>33</v>
+      <c r="B113">
+        <v>44604807</v>
       </c>
       <c r="C113" t="s">
-        <v>71</v>
-      </c>
-      <c r="D113" t="s">
-        <v>233</v>
+        <v>13</v>
+      </c>
+      <c r="D113" s="1">
+        <v>597471660</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G113" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="H113">
+        <v>50744760</v>
+      </c>
+      <c r="I113" t="s">
+        <v>21</v>
+      </c>
+      <c r="J113" s="1">
+        <v>639945283</v>
+      </c>
+      <c r="K113" t="s">
+        <v>45</v>
+      </c>
+      <c r="L113" t="s">
+        <v>85</v>
+      </c>
+      <c r="M113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>111941744</v>
       </c>
+      <c r="B114">
+        <v>44946565</v>
+      </c>
       <c r="C114" t="s">
-        <v>236</v>
-      </c>
-      <c r="D114" t="s">
-        <v>237</v>
-      </c>
-      <c r="E114" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D114" s="1">
+        <v>597471661</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="G114" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="H114">
+        <v>50744748</v>
+      </c>
+      <c r="I114" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114" s="1">
+        <v>639945045</v>
+      </c>
+      <c r="K114" t="s">
+        <v>14</v>
+      </c>
+      <c r="L114" t="s">
+        <v>25</v>
+      </c>
+      <c r="M114" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>111941744</v>
       </c>
+      <c r="B115">
+        <v>44946565</v>
+      </c>
       <c r="C115" t="s">
-        <v>236</v>
-      </c>
-      <c r="D115" t="s">
-        <v>237</v>
-      </c>
-      <c r="E115" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="D115" s="1">
+        <v>597471661</v>
       </c>
       <c r="F115" t="s">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="G115" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="H115">
+        <v>50744760</v>
+      </c>
+      <c r="I115" t="s">
+        <v>21</v>
+      </c>
+      <c r="J115" s="1">
+        <v>639945283</v>
+      </c>
+      <c r="K115" t="s">
+        <v>45</v>
+      </c>
+      <c r="L115" t="s">
+        <v>85</v>
+      </c>
+      <c r="M115" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>111950799</v>
       </c>
-      <c r="B116" t="s">
-        <v>5</v>
+      <c r="B116">
+        <v>44604807</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
       </c>
-      <c r="D116" t="s">
-        <v>238</v>
+      <c r="D116" s="1">
+        <v>597683082</v>
       </c>
       <c r="E116" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="G116" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="H116">
+        <v>50744748</v>
+      </c>
+      <c r="I116" t="s">
+        <v>17</v>
+      </c>
+      <c r="J116" s="1">
+        <v>639945047</v>
+      </c>
+      <c r="K116" t="s">
+        <v>35</v>
+      </c>
+      <c r="L116" t="s">
+        <v>253</v>
+      </c>
+      <c r="M116" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>111950799</v>
       </c>
-      <c r="B117" t="s">
-        <v>5</v>
+      <c r="B117">
+        <v>44604807</v>
       </c>
       <c r="C117" t="s">
         <v>13</v>
       </c>
-      <c r="D117" t="s">
-        <v>238</v>
+      <c r="D117" s="1">
+        <v>597683082</v>
       </c>
       <c r="E117" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="G117" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="H117">
+        <v>50744760</v>
+      </c>
+      <c r="I117" t="s">
+        <v>21</v>
+      </c>
+      <c r="J117" s="1">
+        <v>639945286</v>
+      </c>
+      <c r="K117" t="s">
+        <v>38</v>
+      </c>
+      <c r="L117" t="s">
+        <v>255</v>
+      </c>
+      <c r="M117" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>111950799</v>
       </c>
-      <c r="B118" t="s">
-        <v>5</v>
+      <c r="B118">
+        <v>44946565</v>
       </c>
       <c r="C118" t="s">
-        <v>243</v>
-      </c>
-      <c r="D118" t="s">
-        <v>244</v>
+        <v>24</v>
+      </c>
+      <c r="D118" s="1">
+        <v>597683083</v>
       </c>
       <c r="E118" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="G118" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="H118">
+        <v>50744748</v>
+      </c>
+      <c r="I118" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118" s="1">
+        <v>639945047</v>
+      </c>
+      <c r="K118" t="s">
+        <v>35</v>
+      </c>
+      <c r="L118" t="s">
+        <v>253</v>
+      </c>
+      <c r="M118" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>111950799</v>
       </c>
-      <c r="B119" t="s">
-        <v>5</v>
+      <c r="B119">
+        <v>44946565</v>
       </c>
       <c r="C119" t="s">
-        <v>243</v>
-      </c>
-      <c r="D119" t="s">
-        <v>244</v>
+        <v>24</v>
+      </c>
+      <c r="D119" s="1">
+        <v>597683083</v>
       </c>
       <c r="E119" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="G119" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="H119">
+        <v>50744760</v>
+      </c>
+      <c r="I119" t="s">
+        <v>21</v>
+      </c>
+      <c r="J119" s="1">
+        <v>639945286</v>
+      </c>
+      <c r="K119" t="s">
+        <v>38</v>
+      </c>
+      <c r="L119" t="s">
+        <v>255</v>
+      </c>
+      <c r="M119" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>111977883</v>
       </c>
-      <c r="B120" t="s">
-        <v>5</v>
+      <c r="B120">
+        <v>44604807</v>
       </c>
       <c r="C120" t="s">
-        <v>208</v>
-      </c>
-      <c r="D120" t="s">
-        <v>245</v>
+        <v>13</v>
+      </c>
+      <c r="D120" s="1">
+        <v>598196485</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F120" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="G120" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="H120">
+        <v>50744748</v>
+      </c>
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120" s="1">
+        <v>639945050</v>
+      </c>
+      <c r="K120" t="s">
+        <v>52</v>
+      </c>
+      <c r="L120" t="s">
+        <v>260</v>
+      </c>
+      <c r="M120" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>112015642</v>
       </c>
-      <c r="B121" t="s">
-        <v>40</v>
+      <c r="B121">
+        <v>44946565</v>
       </c>
       <c r="C121" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" s="1">
+        <v>599172270</v>
+      </c>
+      <c r="E121" t="s">
+        <v>52</v>
+      </c>
+      <c r="F121" t="s">
+        <v>72</v>
+      </c>
+      <c r="G121" t="s">
+        <v>262</v>
+      </c>
+      <c r="H121">
+        <v>50744760</v>
+      </c>
+      <c r="I121" t="s">
+        <v>21</v>
+      </c>
+      <c r="J121" s="1">
+        <v>639945289</v>
+      </c>
+      <c r="K121" t="s">
+        <v>263</v>
+      </c>
+      <c r="L121" t="s">
         <v>59</v>
       </c>
-      <c r="D121" t="s">
-        <v>248</v>
-      </c>
-      <c r="E121" t="s">
-        <v>249</v>
-      </c>
-      <c r="F121" t="s">
-        <v>47</v>
-      </c>
-      <c r="G121" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M121" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>112015706</v>
       </c>
-      <c r="B122" t="s">
-        <v>40</v>
+      <c r="B122">
+        <v>44604807</v>
       </c>
       <c r="C122" t="s">
-        <v>251</v>
-      </c>
-      <c r="D122" t="s">
-        <v>252</v>
+        <v>13</v>
+      </c>
+      <c r="D122" s="1">
+        <v>599172688</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F122" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G122" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="H122">
+        <v>50744748</v>
+      </c>
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122" s="1">
+        <v>639945056</v>
+      </c>
+      <c r="K122" t="s">
+        <v>45</v>
+      </c>
+      <c r="L122" t="s">
+        <v>267</v>
+      </c>
+      <c r="M122" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>112015706</v>
       </c>
-      <c r="B123" t="s">
-        <v>40</v>
+      <c r="B123">
+        <v>44604807</v>
       </c>
       <c r="C123" t="s">
-        <v>251</v>
-      </c>
-      <c r="D123" t="s">
-        <v>252</v>
+        <v>13</v>
+      </c>
+      <c r="D123" s="1">
+        <v>599172688</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F123" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="G123" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="H123">
+        <v>50744760</v>
+      </c>
+      <c r="I123" t="s">
+        <v>21</v>
+      </c>
+      <c r="J123" s="1">
+        <v>639945290</v>
+      </c>
+      <c r="K123" t="s">
+        <v>52</v>
+      </c>
+      <c r="L123" t="s">
+        <v>269</v>
+      </c>
+      <c r="M123" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>112015706</v>
       </c>
-      <c r="B124" t="s">
-        <v>8</v>
+      <c r="B124">
+        <v>44946565</v>
       </c>
       <c r="C124" t="s">
-        <v>257</v>
-      </c>
-      <c r="D124" t="s">
-        <v>258</v>
+        <v>24</v>
+      </c>
+      <c r="D124" s="1">
+        <v>599172689</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F124" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="G124" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="H124">
+        <v>50744748</v>
+      </c>
+      <c r="I124" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124" s="1">
+        <v>639945056</v>
+      </c>
+      <c r="K124" t="s">
+        <v>45</v>
+      </c>
+      <c r="L124" t="s">
+        <v>267</v>
+      </c>
+      <c r="M124" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>112015706</v>
       </c>
-      <c r="B125" t="s">
-        <v>8</v>
+      <c r="B125">
+        <v>44946565</v>
       </c>
       <c r="C125" t="s">
-        <v>257</v>
-      </c>
-      <c r="D125" t="s">
-        <v>258</v>
+        <v>24</v>
+      </c>
+      <c r="D125" s="1">
+        <v>599172689</v>
       </c>
       <c r="E125" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F125" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="G125" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="H125">
+        <v>50744760</v>
+      </c>
+      <c r="I125" t="s">
+        <v>21</v>
+      </c>
+      <c r="J125" s="1">
+        <v>639945290</v>
+      </c>
+      <c r="K125" t="s">
+        <v>52</v>
+      </c>
+      <c r="L125" t="s">
+        <v>269</v>
+      </c>
+      <c r="M125" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>112015755</v>
       </c>
-      <c r="B126" t="s">
-        <v>33</v>
+      <c r="B126">
+        <v>44604807</v>
       </c>
       <c r="C126" t="s">
-        <v>259</v>
-      </c>
-      <c r="D126" t="s">
-        <v>260</v>
+        <v>13</v>
+      </c>
+      <c r="D126" s="1">
+        <v>599173050</v>
       </c>
       <c r="E126" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G126" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="H126">
+        <v>50744748</v>
+      </c>
+      <c r="I126" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126" s="1">
+        <v>639945060</v>
+      </c>
+      <c r="K126" t="s">
+        <v>50</v>
+      </c>
+      <c r="L126" t="s">
+        <v>275</v>
+      </c>
+      <c r="M126" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>112015755</v>
       </c>
-      <c r="B127" t="s">
-        <v>33</v>
+      <c r="B127">
+        <v>44604807</v>
       </c>
       <c r="C127" t="s">
-        <v>259</v>
-      </c>
-      <c r="D127" t="s">
-        <v>260</v>
+        <v>13</v>
+      </c>
+      <c r="D127" s="1">
+        <v>599173050</v>
+      </c>
+      <c r="E127" t="s">
+        <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="G127" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="H127">
+        <v>50744760</v>
+      </c>
+      <c r="I127" t="s">
+        <v>21</v>
+      </c>
+      <c r="J127" s="1">
+        <v>639945294</v>
+      </c>
+      <c r="L127" t="s">
+        <v>277</v>
+      </c>
+      <c r="M127" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>112015755</v>
       </c>
-      <c r="B128" t="s">
-        <v>40</v>
+      <c r="B128">
+        <v>44946565</v>
       </c>
       <c r="C128" t="s">
-        <v>265</v>
-      </c>
-      <c r="D128" t="s">
-        <v>266</v>
+        <v>24</v>
+      </c>
+      <c r="D128" s="1">
+        <v>599173051</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F128" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="G128" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="H128">
+        <v>50744748</v>
+      </c>
+      <c r="I128" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" s="1">
+        <v>639945060</v>
+      </c>
+      <c r="K128" t="s">
+        <v>50</v>
+      </c>
+      <c r="L128" t="s">
+        <v>275</v>
+      </c>
+      <c r="M128" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>112015755</v>
       </c>
-      <c r="B129" t="s">
-        <v>40</v>
+      <c r="B129">
+        <v>44946565</v>
       </c>
       <c r="C129" t="s">
-        <v>265</v>
-      </c>
-      <c r="D129" t="s">
-        <v>266</v>
+        <v>24</v>
+      </c>
+      <c r="D129" s="1">
+        <v>599173051</v>
+      </c>
+      <c r="E129" t="s">
+        <v>52</v>
       </c>
       <c r="F129" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="G129" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="H129">
+        <v>50744760</v>
+      </c>
+      <c r="I129" t="s">
+        <v>21</v>
+      </c>
+      <c r="J129" s="1">
+        <v>639945294</v>
+      </c>
+      <c r="L129" t="s">
+        <v>277</v>
+      </c>
+      <c r="M129" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>112016202</v>
       </c>
-      <c r="B130" t="s">
-        <v>5</v>
+      <c r="B130">
+        <v>44604807</v>
       </c>
       <c r="C130" t="s">
-        <v>208</v>
-      </c>
-      <c r="D130" t="s">
-        <v>267</v>
+        <v>13</v>
+      </c>
+      <c r="D130" s="1">
+        <v>599184754</v>
       </c>
       <c r="E130" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="G130" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="H130">
+        <v>50744748</v>
+      </c>
+      <c r="I130" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130" s="1">
+        <v>639945062</v>
+      </c>
+      <c r="K130" t="s">
+        <v>18</v>
+      </c>
+      <c r="L130" t="s">
+        <v>119</v>
+      </c>
+      <c r="M130" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>112016202</v>
       </c>
-      <c r="B131" t="s">
-        <v>5</v>
+      <c r="B131">
+        <v>44604807</v>
       </c>
       <c r="C131" t="s">
-        <v>208</v>
-      </c>
-      <c r="D131" t="s">
-        <v>267</v>
+        <v>13</v>
+      </c>
+      <c r="D131" s="1">
+        <v>599184754</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="G131" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="H131">
+        <v>50744760</v>
+      </c>
+      <c r="I131" t="s">
+        <v>21</v>
+      </c>
+      <c r="J131" s="1">
+        <v>639945296</v>
+      </c>
+      <c r="K131" t="s">
+        <v>55</v>
+      </c>
+      <c r="L131" t="s">
+        <v>283</v>
+      </c>
+      <c r="M131" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>112016202</v>
       </c>
-      <c r="B132" t="s">
-        <v>5</v>
+      <c r="B132">
+        <v>44604807</v>
       </c>
       <c r="C132" t="s">
-        <v>208</v>
-      </c>
-      <c r="D132" t="s">
-        <v>267</v>
+        <v>13</v>
+      </c>
+      <c r="D132" s="1">
+        <v>599184754</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="G132" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="H132">
+        <v>50744762</v>
+      </c>
+      <c r="I132" t="s">
+        <v>70</v>
+      </c>
+      <c r="J132" s="1">
+        <v>639945528</v>
+      </c>
+      <c r="K132" t="s">
+        <v>45</v>
+      </c>
+      <c r="L132" t="s">
+        <v>285</v>
+      </c>
+      <c r="M132" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>112016202</v>
       </c>
-      <c r="B133" t="s">
-        <v>43</v>
+      <c r="B133">
+        <v>44946565</v>
       </c>
       <c r="C133" t="s">
-        <v>273</v>
-      </c>
-      <c r="D133" t="s">
-        <v>274</v>
+        <v>24</v>
+      </c>
+      <c r="D133" s="1">
+        <v>599184755</v>
       </c>
       <c r="E133" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="F133" t="s">
-        <v>105</v>
+        <v>287</v>
       </c>
       <c r="G133" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="H133">
+        <v>50744748</v>
+      </c>
+      <c r="I133" t="s">
+        <v>17</v>
+      </c>
+      <c r="J133" s="1">
+        <v>639945062</v>
+      </c>
+      <c r="K133" t="s">
+        <v>18</v>
+      </c>
+      <c r="L133" t="s">
+        <v>119</v>
+      </c>
+      <c r="M133" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>112016202</v>
       </c>
-      <c r="B134" t="s">
-        <v>43</v>
+      <c r="B134">
+        <v>44946565</v>
       </c>
       <c r="C134" t="s">
-        <v>273</v>
-      </c>
-      <c r="D134" t="s">
-        <v>274</v>
+        <v>24</v>
+      </c>
+      <c r="D134" s="1">
+        <v>599184755</v>
       </c>
       <c r="E134" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F134" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="G134" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="H134">
+        <v>50744760</v>
+      </c>
+      <c r="I134" t="s">
+        <v>21</v>
+      </c>
+      <c r="J134" s="1">
+        <v>639945296</v>
+      </c>
+      <c r="K134" t="s">
+        <v>55</v>
+      </c>
+      <c r="L134" t="s">
+        <v>283</v>
+      </c>
+      <c r="M134" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>112016202</v>
       </c>
-      <c r="B135" t="s">
-        <v>43</v>
+      <c r="B135">
+        <v>44946565</v>
       </c>
       <c r="C135" t="s">
-        <v>273</v>
-      </c>
-      <c r="D135" t="s">
-        <v>274</v>
+        <v>24</v>
+      </c>
+      <c r="D135" s="1">
+        <v>599184755</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F135" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="G135" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="H135">
+        <v>50744762</v>
+      </c>
+      <c r="I135" t="s">
+        <v>70</v>
+      </c>
+      <c r="J135" s="1">
+        <v>639945528</v>
+      </c>
+      <c r="K135" t="s">
+        <v>45</v>
+      </c>
+      <c r="L135" t="s">
+        <v>285</v>
+      </c>
+      <c r="M135" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>112016202</v>
       </c>
-      <c r="B136" t="s">
-        <v>43</v>
+      <c r="B136">
+        <v>44946566</v>
       </c>
       <c r="C136" t="s">
-        <v>275</v>
-      </c>
-      <c r="D136" t="s">
-        <v>276</v>
+        <v>74</v>
+      </c>
+      <c r="D136" s="1">
+        <v>599184756</v>
       </c>
       <c r="E136" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="F136" t="s">
-        <v>105</v>
+        <v>289</v>
       </c>
       <c r="G136" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="H136">
+        <v>50744748</v>
+      </c>
+      <c r="I136" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136" s="1">
+        <v>639945062</v>
+      </c>
+      <c r="K136" t="s">
+        <v>18</v>
+      </c>
+      <c r="L136" t="s">
+        <v>119</v>
+      </c>
+      <c r="M136" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>112016202</v>
       </c>
-      <c r="B137" t="s">
-        <v>43</v>
+      <c r="B137">
+        <v>44946566</v>
       </c>
       <c r="C137" t="s">
-        <v>275</v>
-      </c>
-      <c r="D137" t="s">
-        <v>276</v>
+        <v>74</v>
+      </c>
+      <c r="D137" s="1">
+        <v>599184756</v>
       </c>
       <c r="E137" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F137" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="G137" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="H137">
+        <v>50744760</v>
+      </c>
+      <c r="I137" t="s">
+        <v>21</v>
+      </c>
+      <c r="J137" s="1">
+        <v>639945296</v>
+      </c>
+      <c r="K137" t="s">
+        <v>55</v>
+      </c>
+      <c r="L137" t="s">
+        <v>283</v>
+      </c>
+      <c r="M137" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>112016202</v>
       </c>
-      <c r="B138" t="s">
-        <v>43</v>
+      <c r="B138">
+        <v>44946566</v>
       </c>
       <c r="C138" t="s">
-        <v>275</v>
-      </c>
-      <c r="D138" t="s">
-        <v>276</v>
+        <v>74</v>
+      </c>
+      <c r="D138" s="1">
+        <v>599184756</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F138" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="G138" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="H138">
+        <v>50744762</v>
+      </c>
+      <c r="I138" t="s">
+        <v>70</v>
+      </c>
+      <c r="J138" s="1">
+        <v>639945528</v>
+      </c>
+      <c r="K138" t="s">
+        <v>45</v>
+      </c>
+      <c r="L138" t="s">
+        <v>285</v>
+      </c>
+      <c r="M138" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>112016203</v>
       </c>
-      <c r="B139" t="s">
-        <v>43</v>
+      <c r="B139">
+        <v>44604807</v>
       </c>
       <c r="C139" t="s">
-        <v>277</v>
-      </c>
-      <c r="D139" t="s">
-        <v>278</v>
+        <v>13</v>
+      </c>
+      <c r="D139" s="1">
+        <v>599184774</v>
       </c>
       <c r="E139" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F139" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="G139" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="H139">
+        <v>50744748</v>
+      </c>
+      <c r="I139" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139" s="1">
+        <v>639945063</v>
+      </c>
+      <c r="K139" t="s">
+        <v>38</v>
+      </c>
+      <c r="L139" t="s">
+        <v>293</v>
+      </c>
+      <c r="M139" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>112016203</v>
       </c>
-      <c r="B140" t="s">
-        <v>43</v>
+      <c r="B140">
+        <v>44604807</v>
       </c>
       <c r="C140" t="s">
-        <v>277</v>
-      </c>
-      <c r="D140" t="s">
-        <v>278</v>
+        <v>13</v>
+      </c>
+      <c r="D140" s="1">
+        <v>599184774</v>
       </c>
       <c r="E140" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F140" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="G140" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="H140">
+        <v>50744760</v>
+      </c>
+      <c r="I140" t="s">
+        <v>21</v>
+      </c>
+      <c r="J140" s="1">
+        <v>639945297</v>
+      </c>
+      <c r="K140" t="s">
+        <v>45</v>
+      </c>
+      <c r="L140" t="s">
+        <v>295</v>
+      </c>
+      <c r="M140" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>112016203</v>
       </c>
-      <c r="B141" t="s">
-        <v>5</v>
+      <c r="B141">
+        <v>44946565</v>
       </c>
       <c r="C141" t="s">
-        <v>13</v>
-      </c>
-      <c r="D141" t="s">
-        <v>283</v>
+        <v>24</v>
+      </c>
+      <c r="D141" s="1">
+        <v>599184775</v>
       </c>
       <c r="E141" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F141" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="G141" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="H141">
+        <v>50744748</v>
+      </c>
+      <c r="I141" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141" s="1">
+        <v>639945063</v>
+      </c>
+      <c r="K141" t="s">
+        <v>38</v>
+      </c>
+      <c r="L141" t="s">
+        <v>293</v>
+      </c>
+      <c r="M141" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>112016203</v>
       </c>
-      <c r="B142" t="s">
-        <v>5</v>
+      <c r="B142">
+        <v>44946565</v>
       </c>
       <c r="C142" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" t="s">
-        <v>283</v>
+        <v>24</v>
+      </c>
+      <c r="D142" s="1">
+        <v>599184775</v>
       </c>
       <c r="E142" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F142" t="s">
-        <v>281</v>
+        <v>25</v>
       </c>
       <c r="G142" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="H142">
+        <v>50744760</v>
+      </c>
+      <c r="I142" t="s">
+        <v>21</v>
+      </c>
+      <c r="J142" s="1">
+        <v>639945297</v>
+      </c>
+      <c r="K142" t="s">
+        <v>45</v>
+      </c>
+      <c r="L142" t="s">
+        <v>295</v>
+      </c>
+      <c r="M142" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>112016417</v>
       </c>
+      <c r="B143">
+        <v>44604807</v>
+      </c>
       <c r="C143" t="s">
-        <v>284</v>
-      </c>
-      <c r="D143" t="s">
-        <v>285</v>
+        <v>13</v>
+      </c>
+      <c r="D143" s="1">
+        <v>599187256</v>
       </c>
       <c r="F143" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="G143" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="H143">
+        <v>50744748</v>
+      </c>
+      <c r="I143" t="s">
+        <v>17</v>
+      </c>
+      <c r="J143" s="1">
+        <v>639945064</v>
+      </c>
+      <c r="L143" t="s">
+        <v>277</v>
+      </c>
+      <c r="M143" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>112016464</v>
       </c>
+      <c r="B144">
+        <v>44946565</v>
+      </c>
       <c r="C144" t="s">
-        <v>137</v>
-      </c>
-      <c r="E144" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="D144" s="1">
+        <v>599187683</v>
       </c>
       <c r="F144" t="s">
-        <v>287</v>
-      </c>
-      <c r="G144" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="H144">
+        <v>50744760</v>
+      </c>
+      <c r="I144" t="s">
+        <v>21</v>
+      </c>
+      <c r="J144" s="1">
+        <v>639945298</v>
+      </c>
+      <c r="K144" t="s">
+        <v>52</v>
+      </c>
+      <c r="L144" t="s">
+        <v>301</v>
+      </c>
+      <c r="M144" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>112025213</v>
       </c>
-      <c r="B145" t="s">
-        <v>5</v>
+      <c r="B145">
+        <v>44946565</v>
       </c>
       <c r="C145" t="s">
-        <v>208</v>
-      </c>
-      <c r="D145" t="s">
-        <v>289</v>
+        <v>24</v>
+      </c>
+      <c r="D145" s="1">
+        <v>599333100</v>
       </c>
       <c r="E145" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F145" t="s">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="G145" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="H145">
+        <v>50744760</v>
+      </c>
+      <c r="I145" t="s">
+        <v>21</v>
+      </c>
+      <c r="J145" s="1">
+        <v>639945301</v>
+      </c>
+      <c r="K145" t="s">
+        <v>55</v>
+      </c>
+      <c r="L145" t="s">
+        <v>304</v>
+      </c>
+      <c r="M145" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>112050564</v>
       </c>
-      <c r="B146" t="s">
-        <v>26</v>
+      <c r="B146">
+        <v>44604807</v>
       </c>
       <c r="C146" t="s">
-        <v>292</v>
-      </c>
-      <c r="D146" t="s">
-        <v>293</v>
+        <v>13</v>
+      </c>
+      <c r="D146" s="1">
+        <v>599701421</v>
+      </c>
+      <c r="E146" t="s">
+        <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="G146" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="H146">
+        <v>50744748</v>
+      </c>
+      <c r="I146" t="s">
+        <v>17</v>
+      </c>
+      <c r="J146" s="1">
+        <v>639945068</v>
+      </c>
+      <c r="L146" t="s">
+        <v>308</v>
+      </c>
+      <c r="M146" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>112052513</v>
       </c>
-      <c r="B147" t="s">
-        <v>33</v>
+      <c r="B147">
+        <v>44946565</v>
       </c>
       <c r="C147" t="s">
-        <v>38</v>
-      </c>
-      <c r="D147" t="s">
-        <v>296</v>
+        <v>24</v>
+      </c>
+      <c r="D147" s="1">
+        <v>599752578</v>
       </c>
       <c r="E147" t="s">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="F147" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G147" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="H147">
+        <v>50744760</v>
+      </c>
+      <c r="I147" t="s">
+        <v>21</v>
+      </c>
+      <c r="J147" s="1">
+        <v>639945305</v>
+      </c>
+      <c r="K147" t="s">
+        <v>263</v>
+      </c>
+      <c r="L147" t="s">
+        <v>85</v>
+      </c>
+      <c r="M147" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>112054141</v>
       </c>
+      <c r="B148">
+        <v>44604807</v>
+      </c>
       <c r="C148" t="s">
-        <v>298</v>
-      </c>
-      <c r="D148" t="s">
-        <v>299</v>
+        <v>13</v>
+      </c>
+      <c r="D148" s="1">
+        <v>599781688</v>
       </c>
       <c r="F148" t="s">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="G148" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="H148">
+        <v>50744748</v>
+      </c>
+      <c r="I148" t="s">
+        <v>17</v>
+      </c>
+      <c r="J148" s="1">
+        <v>639945072</v>
+      </c>
+      <c r="L148" t="s">
+        <v>146</v>
+      </c>
+      <c r="M148" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>112085756</v>
       </c>
-      <c r="B149" t="s">
-        <v>26</v>
+      <c r="B149">
+        <v>44946565</v>
       </c>
       <c r="C149" t="s">
-        <v>301</v>
-      </c>
-      <c r="D149" t="s">
-        <v>302</v>
+        <v>24</v>
+      </c>
+      <c r="D149" s="1">
+        <v>600371478</v>
       </c>
       <c r="E149" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="G149" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="H149">
+        <v>50744760</v>
+      </c>
+      <c r="I149" t="s">
+        <v>21</v>
+      </c>
+      <c r="J149" s="1">
+        <v>639945306</v>
+      </c>
+      <c r="K149" t="s">
+        <v>52</v>
+      </c>
+      <c r="L149" t="s">
+        <v>317</v>
+      </c>
+      <c r="M149" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>112086881</v>
       </c>
-      <c r="B150" t="s">
-        <v>5</v>
+      <c r="B150">
+        <v>44604807</v>
       </c>
       <c r="C150" t="s">
-        <v>305</v>
-      </c>
-      <c r="D150" t="s">
-        <v>306</v>
+        <v>13</v>
+      </c>
+      <c r="D150" s="1">
+        <v>600393703</v>
       </c>
       <c r="E150" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F150" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="G150" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="H150">
+        <v>50744748</v>
+      </c>
+      <c r="I150" t="s">
+        <v>17</v>
+      </c>
+      <c r="J150" s="1">
+        <v>639945074</v>
+      </c>
+      <c r="K150" t="s">
+        <v>52</v>
+      </c>
+      <c r="L150" t="s">
+        <v>321</v>
+      </c>
+      <c r="M150" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>112087214</v>
       </c>
-      <c r="B151" t="s">
-        <v>5</v>
+      <c r="B151">
+        <v>44604807</v>
       </c>
       <c r="C151" t="s">
-        <v>309</v>
-      </c>
-      <c r="D151" t="s">
-        <v>310</v>
+        <v>13</v>
+      </c>
+      <c r="D151" s="1">
+        <v>600397697</v>
       </c>
       <c r="E151" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="G151" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="H151">
+        <v>50744748</v>
+      </c>
+      <c r="I151" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151" s="1">
+        <v>639945076</v>
+      </c>
+      <c r="K151" t="s">
+        <v>52</v>
+      </c>
+      <c r="L151" t="s">
+        <v>325</v>
+      </c>
+      <c r="M151" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>112087214</v>
       </c>
-      <c r="B152" t="s">
-        <v>5</v>
+      <c r="B152">
+        <v>44604807</v>
       </c>
       <c r="C152" t="s">
-        <v>309</v>
-      </c>
-      <c r="D152" t="s">
-        <v>310</v>
+        <v>13</v>
+      </c>
+      <c r="D152" s="1">
+        <v>600397697</v>
       </c>
       <c r="E152" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F152" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G152" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="H152">
+        <v>50744760</v>
+      </c>
+      <c r="I152" t="s">
+        <v>21</v>
+      </c>
+      <c r="J152" s="1">
+        <v>639945308</v>
+      </c>
+      <c r="K152" t="s">
+        <v>52</v>
+      </c>
+      <c r="L152" t="s">
+        <v>327</v>
+      </c>
+      <c r="M152" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>112087214</v>
       </c>
-      <c r="B153" t="s">
-        <v>5</v>
+      <c r="B153">
+        <v>44946565</v>
       </c>
       <c r="C153" t="s">
-        <v>315</v>
-      </c>
-      <c r="D153" t="s">
-        <v>316</v>
+        <v>24</v>
+      </c>
+      <c r="D153" s="1">
+        <v>600397698</v>
       </c>
       <c r="E153" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F153" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="G153" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="H153">
+        <v>50744748</v>
+      </c>
+      <c r="I153" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153" s="1">
+        <v>639945076</v>
+      </c>
+      <c r="K153" t="s">
+        <v>52</v>
+      </c>
+      <c r="L153" t="s">
+        <v>325</v>
+      </c>
+      <c r="M153" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>112087214</v>
       </c>
-      <c r="B154" t="s">
-        <v>5</v>
+      <c r="B154">
+        <v>44946565</v>
       </c>
       <c r="C154" t="s">
-        <v>315</v>
-      </c>
-      <c r="D154" t="s">
-        <v>316</v>
+        <v>24</v>
+      </c>
+      <c r="D154" s="1">
+        <v>600397698</v>
       </c>
       <c r="E154" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F154" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="G154" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="H154">
+        <v>50744760</v>
+      </c>
+      <c r="I154" t="s">
+        <v>21</v>
+      </c>
+      <c r="J154" s="1">
+        <v>639945308</v>
+      </c>
+      <c r="K154" t="s">
+        <v>52</v>
+      </c>
+      <c r="L154" t="s">
+        <v>327</v>
+      </c>
+      <c r="M154" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>112088018</v>
       </c>
-      <c r="B155" t="s">
-        <v>26</v>
+      <c r="B155">
+        <v>44946565</v>
       </c>
       <c r="C155" t="s">
-        <v>317</v>
-      </c>
-      <c r="D155" t="s">
-        <v>318</v>
+        <v>24</v>
+      </c>
+      <c r="D155" s="1">
+        <v>600405115</v>
       </c>
       <c r="E155" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="G155" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="H155">
+        <v>50744760</v>
+      </c>
+      <c r="I155" t="s">
+        <v>21</v>
+      </c>
+      <c r="J155" s="1">
+        <v>639945310</v>
+      </c>
+      <c r="K155" t="s">
+        <v>38</v>
+      </c>
+      <c r="L155" t="s">
+        <v>333</v>
+      </c>
+      <c r="M155" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>112098859</v>
       </c>
-      <c r="B156" t="s">
-        <v>5</v>
+      <c r="B156">
+        <v>44946565</v>
       </c>
       <c r="C156" t="s">
-        <v>160</v>
-      </c>
-      <c r="D156" t="s">
-        <v>321</v>
+        <v>24</v>
+      </c>
+      <c r="D156" s="1">
+        <v>600720076</v>
+      </c>
+      <c r="E156" t="s">
+        <v>14</v>
       </c>
       <c r="F156" t="s">
-        <v>322</v>
+        <v>174</v>
       </c>
       <c r="G156" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="H156">
+        <v>50744760</v>
+      </c>
+      <c r="I156" t="s">
+        <v>21</v>
+      </c>
+      <c r="J156" s="1">
+        <v>639945311</v>
+      </c>
+      <c r="L156" t="s">
+        <v>336</v>
+      </c>
+      <c r="M156" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>112136666</v>
       </c>
-      <c r="B157" t="s">
-        <v>43</v>
+      <c r="B157">
+        <v>44604807</v>
       </c>
       <c r="C157" t="s">
-        <v>324</v>
-      </c>
-      <c r="D157" t="s">
-        <v>325</v>
+        <v>13</v>
+      </c>
+      <c r="D157" s="1">
+        <v>601505897</v>
       </c>
       <c r="E157" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F157" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="G157" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="H157">
+        <v>50744748</v>
+      </c>
+      <c r="I157" t="s">
+        <v>17</v>
+      </c>
+      <c r="J157" s="1">
+        <v>639945080</v>
+      </c>
+      <c r="K157" t="s">
+        <v>55</v>
+      </c>
+      <c r="L157" t="s">
+        <v>340</v>
+      </c>
+      <c r="M157" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>112136666</v>
       </c>
-      <c r="B158" t="s">
-        <v>43</v>
+      <c r="B158">
+        <v>44604807</v>
       </c>
       <c r="C158" t="s">
-        <v>324</v>
-      </c>
-      <c r="D158" t="s">
-        <v>325</v>
+        <v>13</v>
+      </c>
+      <c r="D158" s="1">
+        <v>601505897</v>
+      </c>
+      <c r="E158" t="s">
+        <v>55</v>
       </c>
       <c r="F158" t="s">
-        <v>71</v>
+        <v>338</v>
       </c>
       <c r="G158" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="H158">
+        <v>50744760</v>
+      </c>
+      <c r="I158" t="s">
+        <v>21</v>
+      </c>
+      <c r="J158" s="1">
+        <v>639945313</v>
+      </c>
+      <c r="L158" t="s">
+        <v>85</v>
+      </c>
+      <c r="M158" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>112136666</v>
       </c>
-      <c r="B159" t="s">
-        <v>5</v>
+      <c r="B159">
+        <v>44946565</v>
       </c>
       <c r="C159" t="s">
-        <v>329</v>
-      </c>
-      <c r="D159" t="s">
-        <v>330</v>
+        <v>24</v>
+      </c>
+      <c r="D159" s="1">
+        <v>601505898</v>
       </c>
       <c r="E159" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="G159" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="H159">
+        <v>50744748</v>
+      </c>
+      <c r="I159" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159" s="1">
+        <v>639945080</v>
+      </c>
+      <c r="K159" t="s">
+        <v>55</v>
+      </c>
+      <c r="L159" t="s">
+        <v>340</v>
+      </c>
+      <c r="M159" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>112136666</v>
       </c>
-      <c r="B160" t="s">
-        <v>5</v>
+      <c r="B160">
+        <v>44946565</v>
       </c>
       <c r="C160" t="s">
-        <v>329</v>
-      </c>
-      <c r="D160" t="s">
-        <v>330</v>
+        <v>24</v>
+      </c>
+      <c r="D160" s="1">
+        <v>601505898</v>
+      </c>
+      <c r="E160" t="s">
+        <v>14</v>
       </c>
       <c r="F160" t="s">
-        <v>71</v>
+        <v>343</v>
       </c>
       <c r="G160" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="H160">
+        <v>50744760</v>
+      </c>
+      <c r="I160" t="s">
+        <v>21</v>
+      </c>
+      <c r="J160" s="1">
+        <v>639945313</v>
+      </c>
+      <c r="L160" t="s">
+        <v>85</v>
+      </c>
+      <c r="M160" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>112159508</v>
       </c>
-      <c r="B161" t="s">
-        <v>26</v>
+      <c r="B161">
+        <v>44946565</v>
       </c>
       <c r="C161" t="s">
-        <v>331</v>
-      </c>
-      <c r="D161" t="s">
-        <v>332</v>
+        <v>24</v>
+      </c>
+      <c r="D161" s="1">
+        <v>601818502</v>
       </c>
       <c r="E161" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="G161" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="H161">
+        <v>50744760</v>
+      </c>
+      <c r="I161" t="s">
+        <v>21</v>
+      </c>
+      <c r="J161" s="1">
+        <v>639945314</v>
+      </c>
+      <c r="K161" t="s">
+        <v>18</v>
+      </c>
+      <c r="L161" t="s">
+        <v>347</v>
+      </c>
+      <c r="M161" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>112160780</v>
       </c>
-      <c r="D162" t="s">
-        <v>335</v>
-      </c>
-      <c r="F162" t="s">
-        <v>71</v>
+      <c r="B162">
+        <v>44604807</v>
+      </c>
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="1">
+        <v>601839058</v>
       </c>
       <c r="G162" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="H162">
+        <v>50744748</v>
+      </c>
+      <c r="I162" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162" s="1">
+        <v>639945082</v>
+      </c>
+      <c r="L162" t="s">
+        <v>85</v>
+      </c>
+      <c r="M162" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>112160780</v>
       </c>
-      <c r="D163" t="s">
-        <v>335</v>
-      </c>
-      <c r="E163" t="s">
-        <v>33</v>
-      </c>
-      <c r="F163" t="s">
-        <v>337</v>
+      <c r="B163">
+        <v>44604807</v>
+      </c>
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="1">
+        <v>601839058</v>
       </c>
       <c r="G163" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="H163">
+        <v>50744760</v>
+      </c>
+      <c r="I163" t="s">
+        <v>21</v>
+      </c>
+      <c r="J163" s="1">
+        <v>639945316</v>
+      </c>
+      <c r="K163" t="s">
+        <v>45</v>
+      </c>
+      <c r="L163" t="s">
+        <v>351</v>
+      </c>
+      <c r="M163" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>112160780</v>
       </c>
-      <c r="D164" t="s">
-        <v>335</v>
-      </c>
-      <c r="E164" t="s">
-        <v>33</v>
-      </c>
-      <c r="F164" t="s">
-        <v>163</v>
+      <c r="B164">
+        <v>44604807</v>
+      </c>
+      <c r="C164" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="1">
+        <v>601839058</v>
       </c>
       <c r="G164" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="H164">
+        <v>50744762</v>
+      </c>
+      <c r="I164" t="s">
+        <v>70</v>
+      </c>
+      <c r="J164" s="1">
+        <v>639945534</v>
+      </c>
+      <c r="K164" t="s">
+        <v>45</v>
+      </c>
+      <c r="L164" t="s">
+        <v>177</v>
+      </c>
+      <c r="M164" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>112160780</v>
       </c>
-      <c r="B165" t="s">
-        <v>43</v>
+      <c r="B165">
+        <v>44946565</v>
       </c>
       <c r="C165" t="s">
-        <v>340</v>
-      </c>
-      <c r="D165" t="s">
-        <v>341</v>
+        <v>24</v>
+      </c>
+      <c r="D165" s="1">
+        <v>601839059</v>
+      </c>
+      <c r="E165" t="s">
+        <v>55</v>
       </c>
       <c r="F165" t="s">
-        <v>71</v>
+        <v>354</v>
       </c>
       <c r="G165" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="H165">
+        <v>50744748</v>
+      </c>
+      <c r="I165" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165" s="1">
+        <v>639945082</v>
+      </c>
+      <c r="L165" t="s">
+        <v>85</v>
+      </c>
+      <c r="M165" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>112160780</v>
       </c>
-      <c r="B166" t="s">
-        <v>43</v>
+      <c r="B166">
+        <v>44946565</v>
       </c>
       <c r="C166" t="s">
-        <v>340</v>
-      </c>
-      <c r="D166" t="s">
-        <v>341</v>
+        <v>24</v>
+      </c>
+      <c r="D166" s="1">
+        <v>601839059</v>
       </c>
       <c r="E166" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F166" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="G166" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="H166">
+        <v>50744760</v>
+      </c>
+      <c r="I166" t="s">
+        <v>21</v>
+      </c>
+      <c r="J166" s="1">
+        <v>639945316</v>
+      </c>
+      <c r="K166" t="s">
+        <v>45</v>
+      </c>
+      <c r="L166" t="s">
+        <v>351</v>
+      </c>
+      <c r="M166" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>112160780</v>
       </c>
-      <c r="B167" t="s">
-        <v>43</v>
+      <c r="B167">
+        <v>44946565</v>
       </c>
       <c r="C167" t="s">
-        <v>340</v>
-      </c>
-      <c r="D167" t="s">
-        <v>341</v>
+        <v>24</v>
+      </c>
+      <c r="D167" s="1">
+        <v>601839059</v>
       </c>
       <c r="E167" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F167" t="s">
-        <v>163</v>
+        <v>354</v>
       </c>
       <c r="G167" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="H167">
+        <v>50744762</v>
+      </c>
+      <c r="I167" t="s">
+        <v>70</v>
+      </c>
+      <c r="J167" s="1">
+        <v>639945534</v>
+      </c>
+      <c r="K167" t="s">
+        <v>45</v>
+      </c>
+      <c r="L167" t="s">
+        <v>177</v>
+      </c>
+      <c r="M167" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>112160780</v>
       </c>
-      <c r="B168" t="s">
-        <v>8</v>
+      <c r="B168">
+        <v>44946566</v>
       </c>
       <c r="C168" t="s">
-        <v>119</v>
-      </c>
-      <c r="D168" t="s">
-        <v>342</v>
+        <v>74</v>
+      </c>
+      <c r="D168" s="1">
+        <v>601839060</v>
+      </c>
+      <c r="E168" t="s">
+        <v>18</v>
       </c>
       <c r="F168" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="G168" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="H168">
+        <v>50744748</v>
+      </c>
+      <c r="I168" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168" s="1">
+        <v>639945082</v>
+      </c>
+      <c r="L168" t="s">
+        <v>85</v>
+      </c>
+      <c r="M168" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>112160780</v>
       </c>
-      <c r="B169" t="s">
-        <v>8</v>
+      <c r="B169">
+        <v>44946566</v>
       </c>
       <c r="C169" t="s">
-        <v>119</v>
-      </c>
-      <c r="D169" t="s">
-        <v>342</v>
+        <v>74</v>
+      </c>
+      <c r="D169" s="1">
+        <v>601839060</v>
       </c>
       <c r="E169" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F169" t="s">
-        <v>337</v>
+        <v>133</v>
       </c>
       <c r="G169" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="H169">
+        <v>50744760</v>
+      </c>
+      <c r="I169" t="s">
+        <v>21</v>
+      </c>
+      <c r="J169" s="1">
+        <v>639945316</v>
+      </c>
+      <c r="K169" t="s">
+        <v>45</v>
+      </c>
+      <c r="L169" t="s">
+        <v>351</v>
+      </c>
+      <c r="M169" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>112160780</v>
       </c>
-      <c r="B170" t="s">
-        <v>8</v>
+      <c r="B170">
+        <v>44946566</v>
       </c>
       <c r="C170" t="s">
-        <v>119</v>
-      </c>
-      <c r="D170" t="s">
-        <v>342</v>
+        <v>74</v>
+      </c>
+      <c r="D170" s="1">
+        <v>601839060</v>
       </c>
       <c r="E170" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F170" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="G170" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="H170">
+        <v>50744762</v>
+      </c>
+      <c r="I170" t="s">
+        <v>70</v>
+      </c>
+      <c r="J170" s="1">
+        <v>639945534</v>
+      </c>
+      <c r="K170" t="s">
+        <v>45</v>
+      </c>
+      <c r="L170" t="s">
+        <v>177</v>
+      </c>
+      <c r="M170" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>112161470</v>
       </c>
-      <c r="B171" t="s">
-        <v>5</v>
+      <c r="B171">
+        <v>44604807</v>
       </c>
       <c r="C171" t="s">
         <v>13</v>
       </c>
-      <c r="D171" t="s">
-        <v>343</v>
+      <c r="D171" s="1">
+        <v>601855423</v>
       </c>
       <c r="E171" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F171" t="s">
-        <v>344</v>
+        <v>25</v>
       </c>
       <c r="G171" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="H171">
+        <v>50744748</v>
+      </c>
+      <c r="I171" t="s">
+        <v>17</v>
+      </c>
+      <c r="J171" s="1">
+        <v>639945083</v>
+      </c>
+      <c r="K171" t="s">
+        <v>14</v>
+      </c>
+      <c r="L171" t="s">
+        <v>358</v>
+      </c>
+      <c r="M171" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>112166358</v>
       </c>
-      <c r="B172" t="s">
-        <v>5</v>
+      <c r="B172">
+        <v>44946565</v>
       </c>
       <c r="C172" t="s">
-        <v>346</v>
-      </c>
-      <c r="D172" t="s">
-        <v>347</v>
+        <v>24</v>
+      </c>
+      <c r="D172" s="1">
+        <v>601907322</v>
       </c>
       <c r="E172" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="G172" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="H172">
+        <v>50744760</v>
+      </c>
+      <c r="I172" t="s">
+        <v>21</v>
+      </c>
+      <c r="J172" s="1">
+        <v>639945318</v>
+      </c>
+      <c r="K172" t="s">
+        <v>45</v>
+      </c>
+      <c r="L172" t="s">
+        <v>50</v>
+      </c>
+      <c r="M172" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>112182583</v>
       </c>
-      <c r="B173" t="s">
-        <v>33</v>
+      <c r="B173">
+        <v>44604807</v>
       </c>
       <c r="C173" t="s">
-        <v>90</v>
-      </c>
-      <c r="D173" t="s">
-        <v>349</v>
+        <v>13</v>
+      </c>
+      <c r="D173" s="1">
+        <v>602061694</v>
+      </c>
+      <c r="E173" t="s">
+        <v>45</v>
       </c>
       <c r="F173" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="G173" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="H173">
+        <v>50744748</v>
+      </c>
+      <c r="I173" t="s">
+        <v>17</v>
+      </c>
+      <c r="J173" s="1">
+        <v>639945085</v>
+      </c>
+      <c r="L173" t="s">
+        <v>216</v>
+      </c>
+      <c r="M173" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>112216499</v>
       </c>
-      <c r="B174" t="s">
-        <v>8</v>
+      <c r="B174">
+        <v>44946565</v>
       </c>
       <c r="C174" t="s">
-        <v>351</v>
-      </c>
-      <c r="D174" t="s">
-        <v>352</v>
+        <v>24</v>
+      </c>
+      <c r="D174" s="1">
+        <v>602454126</v>
       </c>
       <c r="E174" t="s">
-        <v>353</v>
+        <v>18</v>
       </c>
       <c r="F174" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="G174" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="H174">
+        <v>50744760</v>
+      </c>
+      <c r="I174" t="s">
+        <v>21</v>
+      </c>
+      <c r="J174" s="1">
+        <v>639945320</v>
+      </c>
+      <c r="K174" t="s">
+        <v>367</v>
+      </c>
+      <c r="L174" t="s">
+        <v>368</v>
+      </c>
+      <c r="M174" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>112256024</v>
       </c>
-      <c r="B175" t="s">
-        <v>5</v>
+      <c r="B175">
+        <v>44946565</v>
       </c>
       <c r="C175" t="s">
-        <v>356</v>
-      </c>
-      <c r="D175" t="s">
-        <v>357</v>
+        <v>24</v>
+      </c>
+      <c r="D175" s="1">
+        <v>603023349</v>
       </c>
       <c r="E175" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F175" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="G175" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="H175">
+        <v>50744760</v>
+      </c>
+      <c r="I175" t="s">
+        <v>21</v>
+      </c>
+      <c r="J175" s="1">
+        <v>639945324</v>
+      </c>
+      <c r="K175" t="s">
+        <v>14</v>
+      </c>
+      <c r="L175" t="s">
+        <v>372</v>
+      </c>
+      <c r="M175" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>112297915</v>
       </c>
-      <c r="B176" t="s">
-        <v>5</v>
+      <c r="B176">
+        <v>44946566</v>
       </c>
       <c r="C176" t="s">
-        <v>208</v>
-      </c>
-      <c r="D176" t="s">
-        <v>360</v>
+        <v>74</v>
+      </c>
+      <c r="D176" s="1">
+        <v>603818404</v>
       </c>
       <c r="E176" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F176" t="s">
-        <v>361</v>
+        <v>222</v>
       </c>
       <c r="G176" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="H176">
+        <v>50744762</v>
+      </c>
+      <c r="I176" t="s">
+        <v>70</v>
+      </c>
+      <c r="J176" s="1">
+        <v>639945537</v>
+      </c>
+      <c r="K176" t="s">
+        <v>52</v>
+      </c>
+      <c r="L176" t="s">
+        <v>375</v>
+      </c>
+      <c r="M176" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>112300154</v>
       </c>
-      <c r="B177" t="s">
-        <v>5</v>
+      <c r="B177">
+        <v>44604807</v>
       </c>
       <c r="C177" t="s">
         <v>13</v>
       </c>
-      <c r="D177" t="s">
-        <v>363</v>
+      <c r="D177" s="1">
+        <v>603854661</v>
       </c>
       <c r="E177" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F177" t="s">
-        <v>364</v>
+        <v>25</v>
       </c>
       <c r="G177" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="H177">
+        <v>50744748</v>
+      </c>
+      <c r="I177" t="s">
+        <v>17</v>
+      </c>
+      <c r="J177" s="1">
+        <v>639945092</v>
+      </c>
+      <c r="K177" t="s">
+        <v>52</v>
+      </c>
+      <c r="L177" t="s">
+        <v>378</v>
+      </c>
+      <c r="M177" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>112307622</v>
       </c>
-      <c r="B178" t="s">
-        <v>5</v>
+      <c r="B178">
+        <v>44604807</v>
       </c>
       <c r="C178" t="s">
-        <v>366</v>
-      </c>
-      <c r="D178" t="s">
-        <v>367</v>
+        <v>13</v>
+      </c>
+      <c r="D178" s="1">
+        <v>603994613</v>
       </c>
       <c r="E178" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F178" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="G178" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="H178">
+        <v>50744748</v>
+      </c>
+      <c r="I178" t="s">
+        <v>17</v>
+      </c>
+      <c r="J178" s="1">
+        <v>639945095</v>
+      </c>
+      <c r="K178" t="s">
+        <v>38</v>
+      </c>
+      <c r="L178" t="s">
+        <v>382</v>
+      </c>
+      <c r="M178" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>112308531</v>
       </c>
-      <c r="B179" t="s">
-        <v>40</v>
+      <c r="B179">
+        <v>44946566</v>
       </c>
       <c r="C179" t="s">
-        <v>59</v>
-      </c>
-      <c r="D179" t="s">
-        <v>370</v>
+        <v>74</v>
+      </c>
+      <c r="D179" s="1">
+        <v>604016476</v>
       </c>
       <c r="E179" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F179" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G179" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="H179">
+        <v>50744762</v>
+      </c>
+      <c r="I179" t="s">
+        <v>70</v>
+      </c>
+      <c r="J179" s="1">
+        <v>639945539</v>
+      </c>
+      <c r="K179" t="s">
+        <v>52</v>
+      </c>
+      <c r="L179" t="s">
+        <v>72</v>
+      </c>
+      <c r="M179" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>112354430</v>
       </c>
-      <c r="B180" t="s">
-        <v>5</v>
+      <c r="B180">
+        <v>44604807</v>
       </c>
       <c r="C180" t="s">
-        <v>372</v>
-      </c>
-      <c r="D180" t="s">
-        <v>373</v>
+        <v>13</v>
+      </c>
+      <c r="D180" s="1">
+        <v>605864356</v>
       </c>
       <c r="E180" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>386</v>
       </c>
       <c r="G180" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="H180">
+        <v>50744748</v>
+      </c>
+      <c r="I180" t="s">
+        <v>17</v>
+      </c>
+      <c r="J180" s="1">
+        <v>639945101</v>
+      </c>
+      <c r="K180" t="s">
+        <v>126</v>
+      </c>
+      <c r="L180" t="s">
+        <v>48</v>
+      </c>
+      <c r="M180" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>112410223</v>
       </c>
-      <c r="B181" t="s">
-        <v>40</v>
+      <c r="B181">
+        <v>44604807</v>
       </c>
       <c r="C181" t="s">
-        <v>375</v>
-      </c>
-      <c r="D181" t="s">
-        <v>376</v>
+        <v>13</v>
+      </c>
+      <c r="D181" s="1">
+        <v>606216374</v>
       </c>
       <c r="E181" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F181" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="G181" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="H181">
+        <v>50744748</v>
+      </c>
+      <c r="I181" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181" s="1">
+        <v>639945107</v>
+      </c>
+      <c r="K181" t="s">
+        <v>52</v>
+      </c>
+      <c r="L181" t="s">
+        <v>391</v>
+      </c>
+      <c r="M181" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>112486206</v>
       </c>
+      <c r="B182">
+        <v>44604807</v>
+      </c>
       <c r="C182" t="s">
-        <v>379</v>
-      </c>
-      <c r="D182" t="s">
-        <v>380</v>
-      </c>
-      <c r="E182" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D182" s="1">
+        <v>606999758</v>
       </c>
       <c r="F182" t="s">
-        <v>105</v>
+        <v>393</v>
       </c>
       <c r="G182" t="s">
-        <v>381</v>
+        <v>394</v>
+      </c>
+      <c r="H182">
+        <v>50744748</v>
+      </c>
+      <c r="I182" t="s">
+        <v>17</v>
+      </c>
+      <c r="J182" s="1">
+        <v>639945113</v>
+      </c>
+      <c r="K182" t="s">
+        <v>18</v>
+      </c>
+      <c r="L182" t="s">
+        <v>119</v>
+      </c>
+      <c r="M182" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>